--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -690,22 +690,22 @@
         <v>53</v>
       </c>
       <c r="F2">
-        <v>2.86</v>
+        <v>1.04</v>
       </c>
       <c r="G2">
         <v>4.2</v>
       </c>
       <c r="H2">
-        <v>2.12</v>
+        <v>1.31</v>
       </c>
       <c r="I2">
-        <v>2.88</v>
+        <v>1000</v>
       </c>
       <c r="J2">
-        <v>2.42</v>
+        <v>1.31</v>
       </c>
       <c r="K2">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1.79</v>
+        <v>1.24</v>
       </c>
       <c r="Q2">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>54</v>
       </c>
       <c r="F3">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="G3">
         <v>1000</v>
       </c>
       <c r="H3">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="I3">
-        <v>2.24</v>
+        <v>1000</v>
       </c>
       <c r="J3">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="K3">
         <v>1000</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="Q3">
         <v>2.32</v>
@@ -940,13 +940,13 @@
         <v>55</v>
       </c>
       <c r="F4">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="G4">
         <v>4.1</v>
       </c>
       <c r="H4">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="I4">
         <v>2.58</v>
@@ -955,37 +955,37 @@
         <v>2.92</v>
       </c>
       <c r="K4">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L4">
         <v>1.63</v>
       </c>
       <c r="M4">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="N4">
-        <v>2.14</v>
+        <v>1.32</v>
       </c>
       <c r="O4">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="P4">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="Q4">
-        <v>3.3</v>
+        <v>1.02</v>
       </c>
       <c r="R4">
         <v>1.12</v>
       </c>
       <c r="S4">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="T4">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="U4">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="V4">
         <v>1.64</v>
@@ -1065,19 +1065,19 @@
         <v>56</v>
       </c>
       <c r="F5">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="G5">
-        <v>1.73</v>
+        <v>1000</v>
       </c>
       <c r="H5">
-        <v>2.36</v>
+        <v>1.04</v>
       </c>
       <c r="I5">
         <v>1000</v>
       </c>
       <c r="J5">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="K5">
         <v>1000</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.62</v>
+        <v>1.24</v>
       </c>
       <c r="Q5">
-        <v>1.92</v>
+        <v>1.02</v>
       </c>
       <c r="R5">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -708,7 +708,7 @@
         <v>4.1</v>
       </c>
       <c r="L2">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="M2">
         <v>1.04</v>
@@ -729,7 +729,7 @@
         <v>1.54</v>
       </c>
       <c r="S2">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="T2">
         <v>1.47</v>
@@ -815,19 +815,19 @@
         <v>54</v>
       </c>
       <c r="F3">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="G3">
         <v>1000</v>
       </c>
       <c r="H3">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="I3">
-        <v>1000</v>
+        <v>2.24</v>
       </c>
       <c r="J3">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="K3">
         <v>1000</v>
@@ -845,10 +845,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="Q3">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>1.37</v>
       </c>
       <c r="Q4">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R4">
         <v>1.12</v>
@@ -1065,19 +1065,19 @@
         <v>56</v>
       </c>
       <c r="F5">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="G5">
-        <v>1000</v>
+        <v>1.73</v>
       </c>
       <c r="H5">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="I5">
         <v>1000</v>
       </c>
       <c r="J5">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="K5">
         <v>1000</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.24</v>
+        <v>1.61</v>
       </c>
       <c r="Q5">
-        <v>1.02</v>
+        <v>1.92</v>
       </c>
       <c r="R5">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="131">
   <si>
     <t>League</t>
   </si>
@@ -31,6 +31,42 @@
     <t>Away</t>
   </si>
   <si>
+    <t>ID_Evento</t>
+  </si>
+  <si>
+    <t>ID_Home</t>
+  </si>
+  <si>
+    <t>ID_Away</t>
+  </si>
+  <si>
+    <t>ID_Draw</t>
+  </si>
+  <si>
+    <t>IDMercado_Match_Odds</t>
+  </si>
+  <si>
+    <t>IDMercado_Both_teams_to_Score</t>
+  </si>
+  <si>
+    <t>IDMercado_Double_Chance</t>
+  </si>
+  <si>
+    <t>IDMercado_Correct_Score</t>
+  </si>
+  <si>
+    <t>IDMercado_First_Half_Goals_05</t>
+  </si>
+  <si>
+    <t>IDMercado_Over/Under_05_Goals</t>
+  </si>
+  <si>
+    <t>IDMercado_Over/Under_15_Goals</t>
+  </si>
+  <si>
+    <t>IDMercado_Over/Under_25_Goals</t>
+  </si>
+  <si>
     <t>Odd_H_Back</t>
   </si>
   <si>
@@ -49,96 +85,210 @@
     <t>Odd_D_Lay</t>
   </si>
   <si>
+    <t>Odd_Under05_HT_Back</t>
+  </si>
+  <si>
+    <t>Odd_Under05_HT_Lay</t>
+  </si>
+  <si>
     <t>Odd_Over05_HT_Back</t>
   </si>
   <si>
+    <t>Odd_Over05_HT_Lay</t>
+  </si>
+  <si>
+    <t>Odd_Under05_FT_Back</t>
+  </si>
+  <si>
+    <t>Odd_Under05_FT_Lay</t>
+  </si>
+  <si>
     <t>Odd_Over05_FT_Back</t>
   </si>
   <si>
+    <t>Odd_Over05_FT_Lay</t>
+  </si>
+  <si>
     <t>Odd_Under15_FT_Back</t>
   </si>
   <si>
+    <t>Odd_Under15_FT_Lay</t>
+  </si>
+  <si>
     <t>Odd_Over15_FT_Back</t>
   </si>
   <si>
+    <t>Odd_Over15_FT_Lay</t>
+  </si>
+  <si>
     <t>Odd_Under25_FT_Back</t>
   </si>
   <si>
+    <t>Odd_Under25_FT_Lay</t>
+  </si>
+  <si>
     <t>Odd_Over25_FT_Back</t>
   </si>
   <si>
+    <t>Odd_Over25_FT_Lay</t>
+  </si>
+  <si>
     <t>Odd_Under35_FT_Back</t>
   </si>
   <si>
+    <t>Odd_Under35_FT_Lay</t>
+  </si>
+  <si>
     <t>Odd_Over35_FT_Back</t>
   </si>
   <si>
+    <t>Odd_Over35_FT_Lay</t>
+  </si>
+  <si>
     <t>Odd_BTTS_Yes_Back</t>
   </si>
   <si>
+    <t>Odd_BTTS_Yes_Lay</t>
+  </si>
+  <si>
     <t>Odd_BTTS_No_Back</t>
   </si>
   <si>
+    <t>Odd_BTTS_No_Lay</t>
+  </si>
+  <si>
     <t>Double_Chance_Home_or_Draw_Back</t>
   </si>
   <si>
+    <t>Double_Chance_Home_or_Draw_Lay</t>
+  </si>
+  <si>
     <t>Double_Chance_Draw_or_Away_Back</t>
   </si>
   <si>
+    <t>Double_Chance_Draw_or_Away_Lay</t>
+  </si>
+  <si>
+    <t>Double_Chance_Home_or_Away_Back</t>
+  </si>
+  <si>
+    <t>Double_Chance_Home_or_Away_Lay</t>
+  </si>
+  <si>
+    <t>Odd_CS_0x0_Back</t>
+  </si>
+  <si>
     <t>Odd_CS_0x0_Lay</t>
   </si>
   <si>
+    <t>Odd_CS_0x1_Back</t>
+  </si>
+  <si>
     <t>Odd_CS_0x1_Lay</t>
   </si>
   <si>
+    <t>Odd_CS_0x2_Back</t>
+  </si>
+  <si>
     <t>Odd_CS_0x2_Lay</t>
   </si>
   <si>
+    <t>Odd_CS_0x3_Back</t>
+  </si>
+  <si>
     <t>Odd_CS_0x3_Lay</t>
   </si>
   <si>
+    <t>Odd_CS_1x0_Back</t>
+  </si>
+  <si>
     <t>Odd_CS_1x0_Lay</t>
   </si>
   <si>
+    <t>Odd_CS_1x1_Back</t>
+  </si>
+  <si>
     <t>Odd_CS_1x1_Lay</t>
   </si>
   <si>
+    <t>Odd_CS_1x2_Back</t>
+  </si>
+  <si>
     <t>Odd_CS_1x2_Lay</t>
   </si>
   <si>
+    <t>Odd_CS_1x3_Back</t>
+  </si>
+  <si>
     <t>Odd_CS_1x3_Lay</t>
   </si>
   <si>
+    <t>Odd_CS_2x0_Back</t>
+  </si>
+  <si>
     <t>Odd_CS_2x0_Lay</t>
   </si>
   <si>
+    <t>Odd_CS_2x1_Back</t>
+  </si>
+  <si>
     <t>Odd_CS_2x1_Lay</t>
   </si>
   <si>
+    <t>Odd_CS_2x2_Back</t>
+  </si>
+  <si>
     <t>Odd_CS_2x2_Lay</t>
   </si>
   <si>
+    <t>Odd_CS_2x3_Back</t>
+  </si>
+  <si>
     <t>Odd_CS_2x3_Lay</t>
   </si>
   <si>
+    <t>Odd_CS_3x0_Back</t>
+  </si>
+  <si>
     <t>Odd_CS_3x0_Lay</t>
   </si>
   <si>
+    <t>Odd_CS_3x1_Back</t>
+  </si>
+  <si>
     <t>Odd_CS_3x1_Lay</t>
   </si>
   <si>
+    <t>Odd_CS_3x2_Back</t>
+  </si>
+  <si>
     <t>Odd_CS_3x2_Lay</t>
   </si>
   <si>
+    <t>Odd_CS_3x3_Back</t>
+  </si>
+  <si>
     <t>Odd_CS_3x3_Lay</t>
   </si>
   <si>
+    <t>Odd_CS_Goleada_H_Back</t>
+  </si>
+  <si>
     <t>Odd_CS_Goleada_H_Lay</t>
   </si>
   <si>
+    <t>Odd_CS_Goleada_A_Back</t>
+  </si>
+  <si>
     <t>Odd_CS_Goleada_A_Lay</t>
   </si>
   <si>
+    <t>Odd_CS_Goleada_D_Back</t>
+  </si>
+  <si>
+    <t>Odd_CS_Goleada_D_Lay</t>
+  </si>
+  <si>
     <t>Mexican Liga MX</t>
   </si>
   <si>
@@ -185,6 +335,78 @@
   </si>
   <si>
     <t>Barranquilla</t>
+  </si>
+  <si>
+    <t>34787389</t>
+  </si>
+  <si>
+    <t>34800614</t>
+  </si>
+  <si>
+    <t>34776017</t>
+  </si>
+  <si>
+    <t>34799264</t>
+  </si>
+  <si>
+    <t>1.248406432</t>
+  </si>
+  <si>
+    <t>1.248546073</t>
+  </si>
+  <si>
+    <t>1.248263614</t>
+  </si>
+  <si>
+    <t>1.248544610</t>
+  </si>
+  <si>
+    <t>1.248406431</t>
+  </si>
+  <si>
+    <t>1.248263613</t>
+  </si>
+  <si>
+    <t>1.248406423</t>
+  </si>
+  <si>
+    <t>1.248263604</t>
+  </si>
+  <si>
+    <t>1.248406441</t>
+  </si>
+  <si>
+    <t>1.248263624</t>
+  </si>
+  <si>
+    <t>1.248406435</t>
+  </si>
+  <si>
+    <t>1.248263618</t>
+  </si>
+  <si>
+    <t>1.248406436</t>
+  </si>
+  <si>
+    <t>1.248263619</t>
+  </si>
+  <si>
+    <t>1.248406446</t>
+  </si>
+  <si>
+    <t>1.248263630</t>
+  </si>
+  <si>
+    <t>1.248406442</t>
+  </si>
+  <si>
+    <t>1.248546076</t>
+  </si>
+  <si>
+    <t>1.248263625</t>
+  </si>
+  <si>
+    <t>1.248544655</t>
   </si>
 </sst>
 </file>
@@ -542,13 +764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:CM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:91">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,165 +894,465 @@
       <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:91">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2">
+        <v>5687741</v>
+      </c>
+      <c r="H2">
+        <v>328949</v>
+      </c>
+      <c r="I2">
+        <v>58805</v>
+      </c>
+      <c r="J2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R2">
         <v>2.6</v>
       </c>
-      <c r="G2">
+      <c r="S2">
         <v>2.8</v>
       </c>
-      <c r="H2">
+      <c r="T2">
         <v>2.58</v>
       </c>
-      <c r="I2">
+      <c r="U2">
         <v>2.74</v>
       </c>
-      <c r="J2">
+      <c r="V2">
         <v>3.8</v>
       </c>
-      <c r="K2">
+      <c r="W2">
         <v>4.1</v>
       </c>
-      <c r="L2">
+      <c r="X2">
+        <v>3.6</v>
+      </c>
+      <c r="Y2">
+        <v>4.7</v>
+      </c>
+      <c r="Z2">
         <v>1.28</v>
       </c>
-      <c r="M2">
+      <c r="AA2">
+        <v>1.39</v>
+      </c>
+      <c r="AB2">
+        <v>15</v>
+      </c>
+      <c r="AC2">
+        <v>22</v>
+      </c>
+      <c r="AD2">
         <v>1.04</v>
       </c>
-      <c r="N2">
+      <c r="AE2">
+        <v>1.06</v>
+      </c>
+      <c r="AF2">
         <v>5</v>
       </c>
-      <c r="O2">
+      <c r="AG2">
+        <v>5.7</v>
+      </c>
+      <c r="AH2">
         <v>1.21</v>
       </c>
-      <c r="P2">
+      <c r="AI2">
+        <v>1.25</v>
+      </c>
+      <c r="AJ2">
         <v>2.36</v>
       </c>
-      <c r="Q2">
+      <c r="AK2">
+        <v>2.6</v>
+      </c>
+      <c r="AL2">
         <v>1.62</v>
       </c>
-      <c r="R2">
+      <c r="AM2">
+        <v>1.73</v>
+      </c>
+      <c r="AN2">
         <v>1.54</v>
       </c>
-      <c r="S2">
+      <c r="AO2">
+        <v>1.64</v>
+      </c>
+      <c r="AP2">
         <v>2.56</v>
       </c>
-      <c r="T2">
+      <c r="AQ2">
+        <v>2.86</v>
+      </c>
+      <c r="AR2">
         <v>1.47</v>
       </c>
-      <c r="U2">
+      <c r="AS2">
+        <v>1.8</v>
+      </c>
+      <c r="AT2">
         <v>2.24</v>
       </c>
-      <c r="V2">
+      <c r="AU2">
+        <v>3.15</v>
+      </c>
+      <c r="AV2">
         <v>1.57</v>
       </c>
-      <c r="W2">
+      <c r="AW2">
+        <v>1.64</v>
+      </c>
+      <c r="AX2">
         <v>1.55</v>
       </c>
-      <c r="X2">
+      <c r="AY2">
+        <v>1.62</v>
+      </c>
+      <c r="AZ2">
+        <v>1.33</v>
+      </c>
+      <c r="BA2">
+        <v>1.36</v>
+      </c>
+      <c r="BB2">
+        <v>7.4</v>
+      </c>
+      <c r="BC2">
         <v>26</v>
       </c>
-      <c r="Y2">
+      <c r="BD2">
+        <v>13.5</v>
+      </c>
+      <c r="BE2">
         <v>980</v>
       </c>
-      <c r="Z2">
+      <c r="BF2">
+        <v>16.5</v>
+      </c>
+      <c r="BG2">
         <v>21</v>
       </c>
-      <c r="AA2">
+      <c r="BH2">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BI2">
         <v>38</v>
       </c>
-      <c r="AB2">
+      <c r="BJ2">
+        <v>13.5</v>
+      </c>
+      <c r="BK2">
         <v>16</v>
       </c>
-      <c r="AC2">
+      <c r="BL2">
+        <v>8.4</v>
+      </c>
+      <c r="BM2">
         <v>9.6</v>
       </c>
-      <c r="AD2">
+      <c r="BN2">
+        <v>11</v>
+      </c>
+      <c r="BO2">
         <v>12.5</v>
       </c>
-      <c r="AE2">
+      <c r="BP2">
+        <v>21</v>
+      </c>
+      <c r="BQ2">
         <v>980</v>
       </c>
-      <c r="AF2">
+      <c r="BR2">
+        <v>17.5</v>
+      </c>
+      <c r="BS2">
         <v>980</v>
       </c>
-      <c r="AG2">
+      <c r="BT2">
+        <v>11</v>
+      </c>
+      <c r="BU2">
         <v>13</v>
       </c>
-      <c r="AH2">
+      <c r="BV2">
+        <v>13.5</v>
+      </c>
+      <c r="BW2">
         <v>16</v>
       </c>
-      <c r="AI2">
+      <c r="BX2">
+        <v>8</v>
+      </c>
+      <c r="BY2">
         <v>980</v>
       </c>
-      <c r="AJ2">
+      <c r="BZ2">
+        <v>8.4</v>
+      </c>
+      <c r="CA2">
         <v>40</v>
       </c>
-      <c r="AK2">
+      <c r="CB2">
+        <v>7.4</v>
+      </c>
+      <c r="CC2">
         <v>980</v>
       </c>
-      <c r="AL2">
+      <c r="CD2">
+        <v>8</v>
+      </c>
+      <c r="CE2">
         <v>980</v>
       </c>
-      <c r="AM2">
+      <c r="CF2">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="CG2">
         <v>65</v>
       </c>
-      <c r="AN2">
+      <c r="CH2">
+        <v>14</v>
+      </c>
+      <c r="CI2">
         <v>980</v>
       </c>
-      <c r="AO2">
+      <c r="CJ2">
+        <v>11.5</v>
+      </c>
+      <c r="CK2">
         <v>18.5</v>
       </c>
+      <c r="CL2">
+        <v>10.5</v>
+      </c>
+      <c r="CM2">
+        <v>510</v>
+      </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:91">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3">
-        <v>1.8</v>
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>108</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>10823054</v>
       </c>
       <c r="H3">
-        <v>1.75</v>
+        <v>9195442</v>
       </c>
       <c r="I3">
-        <v>2.24</v>
-      </c>
-      <c r="J3">
-        <v>1.8</v>
+        <v>58805</v>
+      </c>
+      <c r="J3" t="s">
+        <v>112</v>
       </c>
       <c r="K3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -845,242 +1367,350 @@
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R3">
+        <v>1.8</v>
+      </c>
+      <c r="S3">
+        <v>1000</v>
+      </c>
+      <c r="T3">
+        <v>1.75</v>
+      </c>
+      <c r="U3">
+        <v>2.24</v>
+      </c>
+      <c r="V3">
+        <v>1.8</v>
+      </c>
+      <c r="W3">
+        <v>1000</v>
+      </c>
+      <c r="AJ3">
         <v>1.4</v>
       </c>
-      <c r="Q3">
+      <c r="AK3">
+        <v>1.75</v>
+      </c>
+      <c r="AL3">
         <v>2.32</v>
       </c>
-      <c r="R3">
+      <c r="AM3">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:91">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4">
+        <v>5994579</v>
+      </c>
+      <c r="H4">
+        <v>192085</v>
+      </c>
+      <c r="I4">
+        <v>58805</v>
+      </c>
+      <c r="J4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>129</v>
+      </c>
+      <c r="R4">
+        <v>3.6</v>
+      </c>
+      <c r="S4">
+        <v>4.1</v>
+      </c>
+      <c r="T4">
+        <v>2.38</v>
+      </c>
+      <c r="U4">
+        <v>2.58</v>
+      </c>
+      <c r="V4">
+        <v>2.92</v>
+      </c>
+      <c r="W4">
+        <v>3.15</v>
+      </c>
+      <c r="X4">
+        <v>1.98</v>
+      </c>
+      <c r="Y4">
+        <v>2.64</v>
+      </c>
+      <c r="Z4">
+        <v>1.61</v>
+      </c>
+      <c r="AA4">
+        <v>2.02</v>
+      </c>
+      <c r="AB4">
+        <v>5.7</v>
+      </c>
+      <c r="AC4">
+        <v>6.8</v>
+      </c>
+      <c r="AD4">
+        <v>1.17</v>
+      </c>
+      <c r="AE4">
+        <v>1.21</v>
+      </c>
+      <c r="AF4">
+        <v>2.14</v>
+      </c>
+      <c r="AG4">
+        <v>2.32</v>
+      </c>
+      <c r="AH4">
+        <v>1.76</v>
+      </c>
+      <c r="AI4">
+        <v>1.88</v>
+      </c>
+      <c r="AJ4">
+        <v>1.37</v>
+      </c>
+      <c r="AK4">
+        <v>1.45</v>
+      </c>
+      <c r="AL4">
+        <v>3.25</v>
+      </c>
+      <c r="AM4">
+        <v>3.65</v>
+      </c>
+      <c r="AN4">
+        <v>1.12</v>
+      </c>
+      <c r="AO4">
+        <v>1.15</v>
+      </c>
+      <c r="AP4">
+        <v>6.6</v>
+      </c>
+      <c r="AQ4">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AR4">
+        <v>2.5</v>
+      </c>
+      <c r="AS4">
+        <v>3.1</v>
+      </c>
+      <c r="AT4">
+        <v>1.47</v>
+      </c>
+      <c r="AU4">
+        <v>1.81</v>
+      </c>
+      <c r="AV4">
+        <v>1.64</v>
+      </c>
+      <c r="AW4">
+        <v>1.73</v>
+      </c>
+      <c r="AX4">
+        <v>1.33</v>
+      </c>
+      <c r="AY4">
+        <v>1.39</v>
+      </c>
+      <c r="AZ4">
+        <v>1.46</v>
+      </c>
+      <c r="BA4">
+        <v>1.53</v>
+      </c>
+      <c r="BB4">
+        <v>5.6</v>
+      </c>
+      <c r="BC4">
+        <v>8</v>
+      </c>
+      <c r="BD4">
+        <v>5.5</v>
+      </c>
+      <c r="BE4">
+        <v>6.4</v>
+      </c>
+      <c r="BF4">
+        <v>5.6</v>
+      </c>
+      <c r="BG4">
+        <v>14</v>
+      </c>
+      <c r="BH4">
+        <v>7.8</v>
+      </c>
+      <c r="BI4">
+        <v>42</v>
+      </c>
+      <c r="BJ4">
+        <v>6.8</v>
+      </c>
+      <c r="BK4">
+        <v>8.6</v>
+      </c>
+      <c r="BL4">
+        <v>6.6</v>
+      </c>
+      <c r="BM4">
+        <v>7.6</v>
+      </c>
+      <c r="BN4">
+        <v>5.6</v>
+      </c>
+      <c r="BO4">
+        <v>14</v>
+      </c>
+      <c r="BP4">
+        <v>7.8</v>
+      </c>
+      <c r="BQ4">
+        <v>46</v>
+      </c>
+      <c r="BR4">
+        <v>6.8</v>
+      </c>
+      <c r="BS4">
+        <v>25</v>
+      </c>
+      <c r="BT4">
+        <v>6.2</v>
+      </c>
+      <c r="BU4">
+        <v>19</v>
+      </c>
+      <c r="BV4">
+        <v>7.4</v>
+      </c>
+      <c r="BW4">
+        <v>34</v>
+      </c>
+      <c r="BX4">
+        <v>4.3</v>
+      </c>
+      <c r="BY4">
+        <v>120</v>
+      </c>
+      <c r="BZ4">
+        <v>4.3</v>
+      </c>
+      <c r="CA4">
+        <v>130</v>
+      </c>
+      <c r="CB4">
+        <v>4.3</v>
+      </c>
+      <c r="CC4">
+        <v>100</v>
+      </c>
+      <c r="CD4">
+        <v>3.7</v>
+      </c>
+      <c r="CE4">
+        <v>160</v>
+      </c>
+      <c r="CF4">
+        <v>3.8</v>
+      </c>
+      <c r="CG4">
+        <v>1000</v>
+      </c>
+      <c r="CH4">
+        <v>3.75</v>
+      </c>
+      <c r="CI4">
+        <v>180</v>
+      </c>
+      <c r="CJ4">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="CK4">
+        <v>70</v>
+      </c>
+      <c r="CL4">
+        <v>2.96</v>
+      </c>
+      <c r="CM4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:91">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5">
+        <v>4880434</v>
+      </c>
+      <c r="H5">
+        <v>5343353</v>
+      </c>
+      <c r="I5">
+        <v>58805</v>
+      </c>
+      <c r="J5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5">
         <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4">
-        <v>3.6</v>
-      </c>
-      <c r="G4">
-        <v>4.1</v>
-      </c>
-      <c r="H4">
-        <v>2.38</v>
-      </c>
-      <c r="I4">
-        <v>2.58</v>
-      </c>
-      <c r="J4">
-        <v>2.92</v>
-      </c>
-      <c r="K4">
-        <v>3.15</v>
-      </c>
-      <c r="L4">
-        <v>1.61</v>
-      </c>
-      <c r="M4">
-        <v>1.17</v>
-      </c>
-      <c r="N4">
-        <v>2.14</v>
-      </c>
-      <c r="O4">
-        <v>1.76</v>
-      </c>
-      <c r="P4">
-        <v>1.37</v>
-      </c>
-      <c r="Q4">
-        <v>3.25</v>
-      </c>
-      <c r="R4">
-        <v>1.12</v>
-      </c>
-      <c r="S4">
-        <v>6.6</v>
-      </c>
-      <c r="T4">
-        <v>2.5</v>
-      </c>
-      <c r="U4">
-        <v>1.47</v>
-      </c>
-      <c r="V4">
-        <v>1.64</v>
-      </c>
-      <c r="W4">
-        <v>1.33</v>
-      </c>
-      <c r="X4">
-        <v>8</v>
-      </c>
-      <c r="Y4">
-        <v>6.4</v>
-      </c>
-      <c r="Z4">
-        <v>14</v>
-      </c>
-      <c r="AA4">
-        <v>42</v>
-      </c>
-      <c r="AB4">
-        <v>8.6</v>
-      </c>
-      <c r="AC4">
-        <v>7.6</v>
-      </c>
-      <c r="AD4">
-        <v>14</v>
-      </c>
-      <c r="AE4">
-        <v>46</v>
-      </c>
-      <c r="AF4">
-        <v>25</v>
-      </c>
-      <c r="AG4">
-        <v>19</v>
-      </c>
-      <c r="AH4">
-        <v>34</v>
-      </c>
-      <c r="AI4">
-        <v>120</v>
-      </c>
-      <c r="AJ4">
-        <v>130</v>
-      </c>
-      <c r="AK4">
-        <v>100</v>
-      </c>
-      <c r="AL4">
-        <v>160</v>
-      </c>
-      <c r="AM4">
-        <v>1000</v>
-      </c>
-      <c r="AN4">
-        <v>180</v>
-      </c>
-      <c r="AO4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5">
-        <v>1.41</v>
-      </c>
-      <c r="G5">
-        <v>1.73</v>
-      </c>
-      <c r="H5">
-        <v>2.36</v>
-      </c>
-      <c r="I5">
-        <v>1000</v>
-      </c>
-      <c r="J5">
-        <v>2.36</v>
-      </c>
-      <c r="K5">
-        <v>1000</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1095,82 +1725,40 @@
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R5">
+        <v>1.42</v>
+      </c>
+      <c r="S5">
+        <v>1.73</v>
+      </c>
+      <c r="T5">
+        <v>2.36</v>
+      </c>
+      <c r="U5">
+        <v>1000</v>
+      </c>
+      <c r="V5">
+        <v>2.36</v>
+      </c>
+      <c r="W5">
+        <v>1000</v>
+      </c>
+      <c r="AJ5">
         <v>1.61</v>
       </c>
-      <c r="Q5">
+      <c r="AK5">
+        <v>2.08</v>
+      </c>
+      <c r="AL5">
         <v>1.92</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
       <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
+        <v>2.62</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,7 +685,7 @@
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -700,19 +700,19 @@
         <v>2.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R2" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S2" t="n">
         <v>2.56</v>
       </c>
       <c r="T2" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="U2" t="n">
-        <v>2.24</v>
+        <v>2.54</v>
       </c>
       <c r="V2" t="n">
         <v>1.58</v>
@@ -940,109 +940,109 @@
         <v>3.1</v>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
         <v>2.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
         <v>1.95</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
-        <v>2.84</v>
+        <v>3.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -1108,16 +1108,16 @@
         <v>1.61</v>
       </c>
       <c r="R5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S5" t="n">
         <v>1.52</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V5" t="n">
         <v>1.01</v>
@@ -1246,13 +1246,13 @@
         <v>1.65</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="T6" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="U6" t="n">
-        <v>2.26</v>
+        <v>2.52</v>
       </c>
       <c r="V6" t="n">
         <v>2.08</v>
@@ -1342,118 +1342,118 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="G7" t="n">
         <v>2.58</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I7" t="n">
         <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Swedish Superettan</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Varbergs BoIS</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.76</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>2.76</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>1.09</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>2.08</v>
+        <v>1.11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>2.08</v>
+        <v>1.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.84</v>
+        <v>1.17</v>
       </c>
       <c r="R8" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S8" t="n">
-        <v>2.88</v>
+        <v>1.17</v>
       </c>
       <c r="T8" t="n">
-        <v>1.61</v>
+        <v>1.03</v>
       </c>
       <c r="U8" t="n">
-        <v>2.28</v>
+        <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
         <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Swedish Superettan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Varbergs BoIS</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="G9" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="I9" t="n">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P9" t="n">
-        <v>1.88</v>
+        <v>1.29</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>2.78</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>2.94</v>
       </c>
       <c r="H10" t="n">
-        <v>1.75</v>
+        <v>2.66</v>
       </c>
       <c r="I10" t="n">
-        <v>2.24</v>
+        <v>2.86</v>
       </c>
       <c r="J10" t="n">
-        <v>1.8</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.4</v>
+        <v>1.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.32</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,260 +1868,530 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="I11" t="n">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="J11" t="n">
-        <v>2.92</v>
+        <v>1.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.25</v>
+        <v>2.32</v>
       </c>
       <c r="R11" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Velez Sarsfield</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>160</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>180</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Uruguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Wanderers (Uru)</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Colombian Primera B</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>2025-10-06</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>19:15:00</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Atletico Huila</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Barranquilla</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F14" t="n">
         <v>1.42</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G14" t="n">
         <v>1.73</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>2.36</v>
       </c>
-      <c r="I12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="I14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J14" t="n">
         <v>2.36</v>
       </c>
-      <c r="K12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="K14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.61</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q14" t="n">
         <v>1.92</v>
       </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -685,7 +685,7 @@
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -844,7 +844,7 @@
         <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
         <v>1.78</v>
@@ -955,7 +955,7 @@
         <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -994,7 +994,7 @@
         <v>18</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z4" t="n">
         <v>19.5</v>
@@ -1003,13 +1003,13 @@
         <v>40</v>
       </c>
       <c r="AB4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>32</v>
@@ -1018,7 +1018,7 @@
         <v>28</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1027,7 +1027,7 @@
         <v>46</v>
       </c>
       <c r="AJ4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK4" t="n">
         <v>46</v>
@@ -1105,10 +1105,10 @@
         <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="R5" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="S5" t="n">
         <v>1.52</v>
@@ -1507,13 +1507,13 @@
         <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Q8" t="n">
         <v>1.17</v>
       </c>
       <c r="R8" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S8" t="n">
         <v>1.17</v>
@@ -1615,16 +1615,16 @@
         <v>2.76</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I9" t="n">
         <v>2.76</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
         <v>3.95</v>
@@ -1642,16 +1642,16 @@
         <v>1.08</v>
       </c>
       <c r="P9" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
         <v>1.21</v>
       </c>
       <c r="S9" t="n">
-        <v>2.88</v>
+        <v>1.05</v>
       </c>
       <c r="T9" t="n">
         <v>1.61</v>
@@ -1660,10 +1660,10 @@
         <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X9" t="n">
         <v>980</v>
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="I11" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="J11" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -2164,22 +2164,22 @@
         <v>5.8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.42</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="n">
-        <v>5.4</v>
+        <v>980</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P13" t="n">
         <v>1.44</v>
@@ -2188,76 +2188,76 @@
         <v>2.36</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -673,46 +673,46 @@
         <v>2.78</v>
       </c>
       <c r="H2" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I2" t="n">
         <v>2.72</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="R2" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="S2" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.57</v>
+        <v>1.03</v>
       </c>
       <c r="U2" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="V2" t="n">
         <v>1.58</v>
@@ -721,22 +721,22 @@
         <v>1.56</v>
       </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
         <v>38</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
         <v>12.5</v>
@@ -751,7 +751,7 @@
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI2" t="n">
         <v>980</v>
@@ -766,13 +766,13 @@
         <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN2" t="n">
         <v>980</v>
       </c>
       <c r="AO2" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="3">
@@ -844,7 +844,7 @@
         <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="U3" t="n">
         <v>1.78</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="G5" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="H5" t="n">
-        <v>6.8</v>
+        <v>1.09</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="J5" t="n">
         <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>14</v>
+        <v>6.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1111,7 +1111,7 @@
         <v>1.25</v>
       </c>
       <c r="S5" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1120,10 +1120,10 @@
         <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1501,13 +1501,13 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Q8" t="n">
         <v>1.17</v>
@@ -1528,7 +1528,7 @@
         <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1615,19 +1615,19 @@
         <v>2.76</v>
       </c>
       <c r="G9" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I9" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.39</v>
@@ -1642,7 +1642,7 @@
         <v>1.08</v>
       </c>
       <c r="P9" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="Q9" t="n">
         <v>1.01</v>
@@ -1660,64 +1660,64 @@
         <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W9" t="n">
         <v>1.5</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AA9" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AB9" t="n">
         <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
         <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -1750,10 +1750,10 @@
         <v>2.78</v>
       </c>
       <c r="G10" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H10" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I10" t="n">
         <v>2.86</v>
@@ -1762,7 +1762,7 @@
         <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.4</v>
@@ -1807,10 +1807,10 @@
         <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AB10" t="n">
         <v>12</v>
@@ -1825,34 +1825,34 @@
         <v>32</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
         <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11">
@@ -1915,7 +1915,7 @@
         <v>1.51</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R11" t="n">
         <v>1.18</v>
@@ -1924,10 +1924,10 @@
         <v>4.8</v>
       </c>
       <c r="T11" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="V11" t="n">
         <v>1.96</v>
@@ -1936,34 +1936,34 @@
         <v>1.2</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.4</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12">
@@ -2017,28 +2017,28 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H12" t="n">
         <v>2.38</v>
       </c>
       <c r="I12" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J12" t="n">
         <v>2.92</v>
       </c>
       <c r="K12" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
         <v>1.61</v>
       </c>
       <c r="M12" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="N12" t="n">
         <v>2.14</v>
@@ -2056,10 +2056,10 @@
         <v>1.12</v>
       </c>
       <c r="S12" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="T12" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U12" t="n">
         <v>1.5</v>
@@ -2068,7 +2068,7 @@
         <v>1.64</v>
       </c>
       <c r="W12" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X12" t="n">
         <v>8</v>
@@ -2077,49 +2077,49 @@
         <v>6.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AE12" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AH12" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
         <v>120</v>
       </c>
       <c r="AJ12" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AO12" t="n">
         <v>60</v>
@@ -2152,61 +2152,61 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="I13" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>980</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N13" t="n">
-        <v>1.02</v>
+        <v>2.54</v>
       </c>
       <c r="O13" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P13" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="R13" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V13" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
@@ -2293,28 +2293,28 @@
         <v>1.73</v>
       </c>
       <c r="H14" t="n">
-        <v>2.36</v>
+        <v>1.04</v>
       </c>
       <c r="I14" t="n">
         <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>2.36</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
         <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P14" t="n">
         <v>1.61</v>
@@ -2323,76 +2323,76 @@
         <v>1.92</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G2" t="n">
         <v>2.78</v>
@@ -676,7 +676,7 @@
         <v>2.56</v>
       </c>
       <c r="I2" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
         <v>3.9</v>
@@ -691,40 +691,40 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P2" t="n">
         <v>2.56</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S2" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T2" t="n">
-        <v>1.03</v>
+        <v>1.53</v>
       </c>
       <c r="U2" t="n">
         <v>2.62</v>
       </c>
       <c r="V2" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W2" t="n">
         <v>1.56</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
         <v>22</v>
@@ -763,7 +763,7 @@
         <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
         <v>60</v>
@@ -811,7 +811,7 @@
         <v>7.4</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J3" t="n">
         <v>4.2</v>
@@ -823,19 +823,19 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R3" t="n">
         <v>1.33</v>
@@ -844,61 +844,61 @@
         <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="X3" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Z3" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AA3" t="n">
         <v>350</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="n">
         <v>170</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="n">
         <v>150</v>
       </c>
       <c r="AJ3" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
         <v>210</v>
@@ -976,7 +976,7 @@
         <v>1.37</v>
       </c>
       <c r="S4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T4" t="n">
         <v>1.73</v>
@@ -994,7 +994,7 @@
         <v>18</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
         <v>19.5</v>
@@ -1003,13 +1003,13 @@
         <v>40</v>
       </c>
       <c r="AB4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
         <v>32</v>
@@ -1018,7 +1018,7 @@
         <v>28</v>
       </c>
       <c r="AG4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1027,7 +1027,7 @@
         <v>46</v>
       </c>
       <c r="AJ4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK4" t="n">
         <v>46</v>
@@ -1075,28 +1075,28 @@
         <v>1.33</v>
       </c>
       <c r="G5" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H5" t="n">
-        <v>1.09</v>
+        <v>5.9</v>
       </c>
       <c r="I5" t="n">
         <v>13.5</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>6.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.12</v>
+        <v>4.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
@@ -1108,16 +1108,16 @@
         <v>1.52</v>
       </c>
       <c r="R5" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="S5" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.03</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>1.03</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
         <v>1.08</v>
@@ -1126,10 +1126,10 @@
         <v>3.05</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,43 +1138,43 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="G6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H6" t="n">
         <v>1.82</v>
       </c>
       <c r="I6" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
         <v>4.7</v>
@@ -1237,16 +1237,16 @@
         <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S6" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T6" t="n">
         <v>1.56</v>
@@ -1255,64 +1255,64 @@
         <v>2.52</v>
       </c>
       <c r="V6" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="X6" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AA6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG6" t="n">
         <v>22</v>
       </c>
-      <c r="AB6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>18</v>
-      </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AJ6" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="G7" t="n">
         <v>2.58</v>
@@ -1351,7 +1351,7 @@
         <v>3.15</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
         <v>3.3</v>
@@ -1360,7 +1360,7 @@
         <v>3.35</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1372,10 +1372,10 @@
         <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R7" t="n">
         <v>1.32</v>
@@ -1390,64 +1390,64 @@
         <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="W7" t="n">
         <v>1.63</v>
       </c>
       <c r="X7" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
         <v>75</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
         <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8">
@@ -1642,7 +1642,7 @@
         <v>1.08</v>
       </c>
       <c r="P9" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="Q9" t="n">
         <v>1.01</v>
@@ -1756,7 +1756,7 @@
         <v>2.64</v>
       </c>
       <c r="I10" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J10" t="n">
         <v>3.35</v>
@@ -1765,7 +1765,7 @@
         <v>3.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -1801,58 +1801,58 @@
         <v>1.51</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
         <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AO10" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1888,7 +1888,7 @@
         <v>6.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="I11" t="n">
         <v>2.04</v>
@@ -1915,7 +1915,7 @@
         <v>1.51</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R11" t="n">
         <v>1.18</v>
@@ -1924,10 +1924,10 @@
         <v>4.8</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="U11" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="V11" t="n">
         <v>1.96</v>
@@ -2026,7 +2026,7 @@
         <v>2.38</v>
       </c>
       <c r="I12" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J12" t="n">
         <v>2.92</v>
@@ -2035,10 +2035,10 @@
         <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="M12" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="N12" t="n">
         <v>2.14</v>
@@ -2056,22 +2056,22 @@
         <v>1.12</v>
       </c>
       <c r="S12" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="T12" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W12" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X12" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="Y12" t="n">
         <v>6.4</v>
@@ -2089,7 +2089,7 @@
         <v>980</v>
       </c>
       <c r="AD12" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AE12" t="n">
         <v>980</v>
@@ -2110,7 +2110,7 @@
         <v>120</v>
       </c>
       <c r="AK12" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AL12" t="n">
         <v>150</v>
@@ -2122,7 +2122,7 @@
         <v>170</v>
       </c>
       <c r="AO12" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -2155,37 +2155,37 @@
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H13" t="n">
         <v>4.3</v>
       </c>
       <c r="I13" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M13" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P13" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="R13" t="n">
         <v>1.18</v>
@@ -2194,19 +2194,19 @@
         <v>5.3</v>
       </c>
       <c r="T13" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U13" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V13" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="W13" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X13" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
@@ -2287,58 +2287,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="G14" t="n">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>6.8</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>1.11</v>
+        <v>2.84</v>
       </c>
       <c r="O14" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="S14" t="n">
-        <v>1.92</v>
+        <v>3.45</v>
       </c>
       <c r="T14" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>1.03</v>
+        <v>1.68</v>
       </c>
       <c r="V14" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="W14" t="n">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2393,6 +2393,276 @@
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Independiente Rivadavia</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X16" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>980</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -673,46 +673,46 @@
         <v>2.78</v>
       </c>
       <c r="H2" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="S2" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="T2" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="U2" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
         <v>1.59</v>
@@ -721,10 +721,10 @@
         <v>1.56</v>
       </c>
       <c r="X2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="Z2" t="n">
         <v>22</v>
@@ -733,7 +733,7 @@
         <v>38</v>
       </c>
       <c r="AB2" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
@@ -742,10 +742,10 @@
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
@@ -754,25 +754,25 @@
         <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
         <v>40</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G3" t="n">
         <v>1.58</v>
@@ -814,13 +814,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
         <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -841,13 +841,13 @@
         <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T3" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V3" t="n">
         <v>1.13</v>
@@ -865,7 +865,7 @@
         <v>85</v>
       </c>
       <c r="AA3" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AB3" t="n">
         <v>8.800000000000001</v>
@@ -907,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
@@ -967,25 +967,25 @@
         <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T4" t="n">
         <v>1.73</v>
       </c>
       <c r="U4" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="W4" t="n">
         <v>1.4</v>
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="n">
         <v>46</v>
@@ -1039,7 +1039,7 @@
         <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO4" t="n">
         <v>24</v>
@@ -1078,19 +1078,19 @@
         <v>1.42</v>
       </c>
       <c r="H5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
         <v>6.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1099,37 +1099,37 @@
         <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="R5" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S5" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V5" t="n">
         <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD5" t="n">
         <v>46</v>
@@ -1168,13 +1168,13 @@
         <v>17.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,7 +1210,7 @@
         <v>3.9</v>
       </c>
       <c r="G6" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
         <v>1.82</v>
@@ -1219,13 +1219,13 @@
         <v>1.94</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
         <v>4.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1240,13 +1240,13 @@
         <v>2.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="R6" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T6" t="n">
         <v>1.56</v>
@@ -1258,7 +1258,7 @@
         <v>2.06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X6" t="n">
         <v>34</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="G7" t="n">
         <v>2.58</v>
@@ -1351,10 +1351,10 @@
         <v>3.15</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>3.35</v>
@@ -1366,7 +1366,7 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="n">
         <v>1.34</v>
@@ -1375,37 +1375,37 @@
         <v>1.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="R7" t="n">
         <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U7" t="n">
         <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="W7" t="n">
         <v>1.63</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AA7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="n">
         <v>12</v>
@@ -1414,40 +1414,40 @@
         <v>9.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF7" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AG7" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
         <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
         <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>2.86</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
-        <v>1.09</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
       <c r="R8" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.17</v>
+        <v>2.14</v>
       </c>
       <c r="T8" t="n">
-        <v>1.03</v>
+        <v>1.53</v>
       </c>
       <c r="U8" t="n">
-        <v>1.03</v>
+        <v>2.28</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="W8" t="n">
-        <v>1.02</v>
+        <v>1.37</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1642,7 +1642,7 @@
         <v>1.08</v>
       </c>
       <c r="P9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q9" t="n">
         <v>1.01</v>
@@ -1756,7 +1756,7 @@
         <v>2.64</v>
       </c>
       <c r="I10" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J10" t="n">
         <v>3.35</v>
@@ -1777,7 +1777,7 @@
         <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q10" t="n">
         <v>1.98</v>
@@ -1795,7 +1795,7 @@
         <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W10" t="n">
         <v>1.51</v>
@@ -1810,16 +1810,16 @@
         <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB10" t="n">
         <v>14</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
         <v>38</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G11" t="n">
         <v>6.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="I11" t="n">
         <v>2.04</v>
@@ -1897,7 +1897,7 @@
         <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>1.48</v>
@@ -1915,7 +1915,7 @@
         <v>1.51</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R11" t="n">
         <v>1.18</v>
@@ -1936,34 +1936,34 @@
         <v>1.2</v>
       </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>6.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AG11" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -2020,10 +2020,10 @@
         <v>3.55</v>
       </c>
       <c r="G12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H12" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I12" t="n">
         <v>2.58</v>
@@ -2038,7 +2038,7 @@
         <v>1.73</v>
       </c>
       <c r="M12" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N12" t="n">
         <v>2.14</v>
@@ -2050,7 +2050,7 @@
         <v>1.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R12" t="n">
         <v>1.12</v>
@@ -2059,7 +2059,7 @@
         <v>6.8</v>
       </c>
       <c r="T12" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U12" t="n">
         <v>1.57</v>
@@ -2068,40 +2068,40 @@
         <v>1.63</v>
       </c>
       <c r="W12" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X12" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y12" t="n">
         <v>6.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AB12" t="n">
         <v>8.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
         <v>16.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AF12" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AI12" t="n">
         <v>120</v>
@@ -2170,7 +2170,7 @@
         <v>3.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.11</v>
@@ -2179,13 +2179,13 @@
         <v>2.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P13" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R13" t="n">
         <v>1.18</v>
@@ -2194,7 +2194,7 @@
         <v>5.3</v>
       </c>
       <c r="T13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U13" t="n">
         <v>1.7</v>
@@ -2203,10 +2203,10 @@
         <v>1.21</v>
       </c>
       <c r="W13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
@@ -2320,7 +2320,7 @@
         <v>1.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="R14" t="n">
         <v>1.27</v>
@@ -2335,7 +2335,7 @@
         <v>1.68</v>
       </c>
       <c r="V14" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W14" t="n">
         <v>2.64</v>
@@ -2425,10 +2425,10 @@
         <v>1.75</v>
       </c>
       <c r="G15" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I15" t="n">
         <v>6.8</v>
@@ -2437,10 +2437,10 @@
         <v>3.55</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -2452,7 +2452,7 @@
         <v>1.41</v>
       </c>
       <c r="P15" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q15" t="n">
         <v>2.2</v>
@@ -2461,22 +2461,22 @@
         <v>1.26</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T15" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U15" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
         <v>1.2</v>
       </c>
       <c r="W15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
         <v>19</v>
@@ -2503,7 +2503,7 @@
         <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
         <v>29</v>
@@ -2512,7 +2512,7 @@
         <v>120</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AK15" t="n">
         <v>27</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G16" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I16" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="J16" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L16" t="n">
         <v>1.42</v>
@@ -2581,73 +2581,73 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="O16" t="n">
         <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R16" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S16" t="n">
         <v>3.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="U16" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W16" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
         <v>10.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AB16" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AG16" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
         <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK16" t="n">
         <v>60</v>
@@ -2662,7 +2662,7 @@
         <v>75</v>
       </c>
       <c r="AO16" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G2" t="n">
         <v>2.78</v>
@@ -676,7 +676,7 @@
         <v>2.58</v>
       </c>
       <c r="I2" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
         <v>3.85</v>
@@ -691,31 +691,31 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
         <v>2.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S2" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W2" t="n">
         <v>1.56</v>
@@ -820,7 +820,7 @@
         <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -946,13 +946,13 @@
         <v>2.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -985,10 +985,10 @@
         <v>2.16</v>
       </c>
       <c r="V4" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X4" t="n">
         <v>18</v>
@@ -997,7 +997,7 @@
         <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
         <v>40</v>
@@ -1027,7 +1027,7 @@
         <v>48</v>
       </c>
       <c r="AJ4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK4" t="n">
         <v>46</v>
@@ -1096,7 +1096,7 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.19</v>
@@ -1105,7 +1105,7 @@
         <v>2.18</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R5" t="n">
         <v>1.55</v>
@@ -1243,10 +1243,10 @@
         <v>1.52</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S6" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T6" t="n">
         <v>1.56</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G7" t="n">
         <v>2.58</v>
@@ -1351,7 +1351,7 @@
         <v>3.15</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="J7" t="n">
         <v>3.25</v>
@@ -1366,7 +1366,7 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.34</v>
@@ -1375,7 +1375,7 @@
         <v>1.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="R7" t="n">
         <v>1.32</v>
@@ -1390,7 +1390,7 @@
         <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W7" t="n">
         <v>1.63</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.26</v>
@@ -1501,31 +1501,31 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>1.5</v>
+        <v>2.22</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="S8" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="T8" t="n">
         <v>1.53</v>
       </c>
       <c r="U8" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="V8" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="W8" t="n">
         <v>1.37</v>
@@ -1621,7 +1621,7 @@
         <v>2.52</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J9" t="n">
         <v>3.7</v>
@@ -1642,7 +1642,7 @@
         <v>1.08</v>
       </c>
       <c r="P9" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="Q9" t="n">
         <v>1.01</v>
@@ -1660,7 +1660,7 @@
         <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W9" t="n">
         <v>1.5</v>
@@ -1717,7 +1717,7 @@
         <v>25</v>
       </c>
       <c r="AO9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G10" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H10" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="I10" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J10" t="n">
         <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.44</v>
@@ -1771,7 +1771,7 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -1780,13 +1780,13 @@
         <v>1.89</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T10" t="n">
         <v>1.78</v>
@@ -1798,40 +1798,40 @@
         <v>1.54</v>
       </c>
       <c r="W10" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X10" t="n">
         <v>16</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AA10" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>55</v>
@@ -1840,19 +1840,19 @@
         <v>55</v>
       </c>
       <c r="AK10" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AL10" t="n">
         <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AO10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G11" t="n">
         <v>6.2</v>
@@ -1891,13 +1891,13 @@
         <v>1.84</v>
       </c>
       <c r="I11" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="J11" t="n">
         <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.48</v>
@@ -1924,16 +1924,16 @@
         <v>4.8</v>
       </c>
       <c r="T11" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
         <v>1.64</v>
       </c>
       <c r="V11" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="W11" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X11" t="n">
         <v>10.5</v>
@@ -1948,7 +1948,7 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
         <v>9.6</v>
@@ -2020,13 +2020,13 @@
         <v>3.55</v>
       </c>
       <c r="G12" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H12" t="n">
         <v>2.36</v>
       </c>
       <c r="I12" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J12" t="n">
         <v>2.92</v>
@@ -2041,13 +2041,13 @@
         <v>1.14</v>
       </c>
       <c r="N12" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O12" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="P12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q12" t="n">
         <v>3.2</v>
@@ -2062,13 +2062,13 @@
         <v>2.52</v>
       </c>
       <c r="U12" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V12" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W12" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X12" t="n">
         <v>8.199999999999999</v>
@@ -2122,7 +2122,7 @@
         <v>170</v>
       </c>
       <c r="AO12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -2155,16 +2155,16 @@
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
         <v>3.4</v>
@@ -2176,7 +2176,7 @@
         <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O13" t="n">
         <v>1.55</v>
@@ -2200,10 +2200,10 @@
         <v>1.7</v>
       </c>
       <c r="V13" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X13" t="n">
         <v>10</v>
@@ -2437,7 +2437,7 @@
         <v>3.55</v>
       </c>
       <c r="K15" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L15" t="n">
         <v>1.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G2" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="H2" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J2" t="n">
         <v>3.85</v>
@@ -715,10 +715,10 @@
         <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="W2" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="X2" t="n">
         <v>25</v>
@@ -742,7 +742,7 @@
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="n">
         <v>22</v>
@@ -757,7 +757,7 @@
         <v>32</v>
       </c>
       <c r="AJ2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AK2" t="n">
         <v>26</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Norwegian 2nd Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Brann II</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Notodden</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.52</v>
+        <v>1.93</v>
       </c>
       <c r="G3" t="n">
-        <v>1.58</v>
+        <v>2.62</v>
       </c>
       <c r="H3" t="n">
-        <v>7.4</v>
+        <v>2.66</v>
       </c>
       <c r="I3" t="n">
-        <v>8.800000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>9.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="O3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.32</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.13</v>
-      </c>
       <c r="W3" t="n">
-        <v>2.72</v>
+        <v>1.61</v>
       </c>
       <c r="X3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hvidovre</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.1</v>
+        <v>1.52</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>1.58</v>
       </c>
       <c r="H4" t="n">
-        <v>2.3</v>
+        <v>7.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.48</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -961,94 +961,94 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.94</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.91</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>2.04</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>1.68</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>1.41</v>
+        <v>2.72</v>
       </c>
       <c r="X4" t="n">
         <v>18</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="AA4" t="n">
-        <v>40</v>
+        <v>340</v>
       </c>
       <c r="AB4" t="n">
-        <v>16</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH4" t="n">
         <v>32</v>
       </c>
-      <c r="AF4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AI4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>17</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AK4" t="n">
         <v>21</v>
       </c>
-      <c r="AI4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>46</v>
-      </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="AN4" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,78 +1058,78 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jonkopings Sodra</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Skovde Aik</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.33</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>1.42</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>2.18</v>
+        <v>1.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.55</v>
+        <v>1.08</v>
       </c>
       <c r="S5" t="n">
-        <v>2.24</v>
+        <v>1.45</v>
       </c>
       <c r="T5" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,43 +1138,43 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Swedish Superettan</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sandvikens</t>
+          <t>Hvidovre</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="G6" t="n">
-        <v>4.6</v>
+        <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>1.82</v>
+        <v>2.3</v>
       </c>
       <c r="I6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P6" t="n">
         <v>1.94</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.62</v>
-      </c>
       <c r="Q6" t="n">
-        <v>1.52</v>
+        <v>1.91</v>
       </c>
       <c r="R6" t="n">
-        <v>1.66</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>2.06</v>
+        <v>1.68</v>
       </c>
       <c r="W6" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG6" t="n">
         <v>17</v>
       </c>
-      <c r="Z6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE6" t="n">
+      <c r="AH6" t="n">
         <v>21</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AI6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN6" t="n">
         <v>44</v>
       </c>
-      <c r="AG6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>36</v>
-      </c>
       <c r="AO6" t="n">
-        <v>9.4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Jonkopings Sodra</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Skovde Aik</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.4</v>
+        <v>1.33</v>
       </c>
       <c r="G7" t="n">
-        <v>2.58</v>
+        <v>1.38</v>
       </c>
       <c r="H7" t="n">
-        <v>3.15</v>
+        <v>8.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.55</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.35</v>
+        <v>6.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.99</v>
+        <v>1.58</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="S7" t="n">
-        <v>3.55</v>
+        <v>2.24</v>
       </c>
       <c r="T7" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="U7" t="n">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>1.63</v>
+        <v>3.6</v>
       </c>
       <c r="X7" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
         <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.4</v>
+        <v>16.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="AE7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AG7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>14</v>
       </c>
-      <c r="AH7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL7" t="n">
         <v>42</v>
       </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>50</v>
-      </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swedish Superettan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Sandvikens</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="G8" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="I8" t="n">
-        <v>2.26</v>
+        <v>1.94</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22</v>
+        <v>2.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R8" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="S8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="U8" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V8" t="n">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="W8" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Swedish Superettan</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Varbergs BoIS</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.76</v>
+        <v>2.4</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2.58</v>
       </c>
       <c r="H9" t="n">
-        <v>2.52</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.68</v>
+        <v>3.55</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="L9" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>2.08</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.08</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>1.49</v>
+        <v>1.82</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="R9" t="n">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>1.05</v>
+        <v>3.55</v>
       </c>
       <c r="T9" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AA9" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN9" t="n">
         <v>27</v>
       </c>
-      <c r="AF9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>25</v>
-      </c>
       <c r="AO9" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Swedish Superettan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Varbergs BoIS</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="G10" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="I10" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.08</v>
       </c>
-      <c r="N10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.33</v>
-      </c>
       <c r="P10" t="n">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>3.55</v>
+        <v>1.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="U10" t="n">
         <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="W10" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
         <v>18</v>
       </c>
       <c r="AA10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AK10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO10" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,108 +1868,108 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="G11" t="n">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="H11" t="n">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="I11" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.48</v>
+        <v>1.26</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U11" t="n">
         <v>2.5</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.64</v>
-      </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>1.76</v>
       </c>
       <c r="W11" t="n">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="X11" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
@@ -1987,13 +1987,13 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>English Premier League 2 - Div 1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Crystal Palace U21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Birmingham U21</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.55</v>
+        <v>1.04</v>
       </c>
       <c r="G12" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>2.36</v>
+        <v>1.04</v>
       </c>
       <c r="I12" t="n">
-        <v>2.56</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>2.92</v>
+        <v>1.01</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="L12" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="O12" t="n">
-        <v>1.74</v>
+        <v>1.09</v>
       </c>
       <c r="P12" t="n">
-        <v>1.39</v>
+        <v>1.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
-        <v>1.12</v>
+        <v>1.85</v>
       </c>
       <c r="S12" t="n">
-        <v>6.8</v>
+        <v>1.6</v>
       </c>
       <c r="T12" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="X12" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Defensor Sporting</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Wanderers (Uru)</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2</v>
       </c>
-      <c r="G13" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.4</v>
-      </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S13" t="n">
-        <v>5.3</v>
+        <v>3.55</v>
       </c>
       <c r="T13" t="n">
-        <v>2.18</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>1.7</v>
+        <v>2.12</v>
       </c>
       <c r="V13" t="n">
-        <v>1.22</v>
+        <v>1.54</v>
       </c>
       <c r="W13" t="n">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="G14" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="H14" t="n">
         <v>6.8</v>
@@ -2320,7 +2320,7 @@
         <v>1.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R14" t="n">
         <v>1.27</v>
@@ -2329,16 +2329,16 @@
         <v>3.45</v>
       </c>
       <c r="T14" t="n">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="U14" t="n">
-        <v>1.68</v>
+        <v>1.03</v>
       </c>
       <c r="V14" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W14" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2408,260 +2408,665 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H15" t="n">
-        <v>5.1</v>
+        <v>2.38</v>
       </c>
       <c r="I15" t="n">
-        <v>6.8</v>
+        <v>2.52</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>2.94</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="N15" t="n">
-        <v>3.1</v>
+        <v>2.18</v>
       </c>
       <c r="O15" t="n">
-        <v>1.41</v>
+        <v>1.76</v>
       </c>
       <c r="P15" t="n">
-        <v>1.71</v>
+        <v>1.39</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="R15" t="n">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="S15" t="n">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.06</v>
+        <v>2.56</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
       <c r="V15" t="n">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="W15" t="n">
-        <v>2.1</v>
+        <v>1.35</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Y15" t="n">
-        <v>19</v>
+        <v>6.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="AA15" t="n">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AD15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG15" t="n">
         <v>27</v>
       </c>
-      <c r="AE15" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="n">
         <v>120</v>
       </c>
       <c r="AJ15" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM15" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>18.5</v>
+        <v>170</v>
       </c>
       <c r="AO15" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Uruguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Wanderers (Uru)</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tigres FC Zipaquira</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Boyaca Patriotas</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Independiente Rivadavia</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>2025-10-06</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>21:30:00</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>La Equidad</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Once Caldas</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="F19" t="n">
         <v>3.35</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G19" t="n">
         <v>3.8</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H19" t="n">
         <v>2.36</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I19" t="n">
         <v>2.64</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J19" t="n">
         <v>2.76</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K19" t="n">
         <v>3.65</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L19" t="n">
         <v>1.42</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M19" t="n">
         <v>1.08</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N19" t="n">
         <v>2.96</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O19" t="n">
         <v>1.44</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P19" t="n">
         <v>1.66</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q19" t="n">
         <v>2.28</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R19" t="n">
         <v>1.24</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S19" t="n">
         <v>3.9</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T19" t="n">
         <v>1.77</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U19" t="n">
         <v>1.92</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V19" t="n">
         <v>1.63</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W19" t="n">
         <v>1.36</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X19" t="n">
         <v>13</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y19" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z19" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA19" t="n">
         <v>46</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB19" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC19" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD19" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE19" t="n">
         <v>38</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF19" t="n">
         <v>29</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG19" t="n">
         <v>18.5</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH19" t="n">
         <v>25</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI19" t="n">
         <v>65</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ19" t="n">
         <v>90</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK19" t="n">
         <v>60</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL19" t="n">
         <v>80</v>
       </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN16" t="n">
+      <c r="AM19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN19" t="n">
         <v>75</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO19" t="n">
         <v>40</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -673,10 +673,10 @@
         <v>2.86</v>
       </c>
       <c r="H2" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I2" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="J2" t="n">
         <v>3.85</v>
@@ -700,7 +700,7 @@
         <v>2.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
         <v>1.56</v>
@@ -715,10 +715,10 @@
         <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W2" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X2" t="n">
         <v>25</v>
@@ -733,7 +733,7 @@
         <v>38</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
@@ -742,7 +742,7 @@
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="n">
         <v>22</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="G3" t="n">
         <v>2.62</v>
@@ -811,16 +811,16 @@
         <v>2.66</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -850,7 +850,7 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="W3" t="n">
         <v>1.61</v>
@@ -1087,7 +1087,7 @@
         <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1102,16 +1102,16 @@
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="R5" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="G6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.45</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>3.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1237,49 +1237,49 @@
         <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q6" t="n">
         <v>1.91</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S6" t="n">
         <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="W6" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="X6" t="n">
         <v>18</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AB6" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC6" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
         <v>32</v>
@@ -1294,10 +1294,10 @@
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK6" t="n">
         <v>46</v>
@@ -1309,10 +1309,10 @@
         <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sandvikens</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>Varbergs BoIS</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.9</v>
+        <v>2.76</v>
       </c>
       <c r="G8" t="n">
-        <v>4.4</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>1.81</v>
+        <v>2.48</v>
       </c>
       <c r="I8" t="n">
-        <v>1.94</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>5.7</v>
+        <v>2.08</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="P8" t="n">
-        <v>2.62</v>
+        <v>1.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
-        <v>1.66</v>
+        <v>1.21</v>
       </c>
       <c r="S8" t="n">
-        <v>2.3</v>
+        <v>1.05</v>
       </c>
       <c r="T8" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="U8" t="n">
-        <v>2.52</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
-        <v>2.06</v>
+        <v>1.58</v>
       </c>
       <c r="W8" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF8" t="n">
         <v>21</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AG8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL8" t="n">
         <v>44</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AM8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO8" t="n">
         <v>22</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>9.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Swedish Superettan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Sandvikens</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="G9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.58</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.4</v>
+        <v>1.87</v>
       </c>
       <c r="W9" t="n">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Y9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z9" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AA9" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="AB9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC9" t="n">
         <v>12</v>
       </c>
-      <c r="AC9" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AJ9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK9" t="n">
         <v>42</v>
       </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>48</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Swedish Superettan</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Varbergs BoIS</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.76</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2.58</v>
       </c>
       <c r="H10" t="n">
-        <v>2.52</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7</v>
+        <v>3.55</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="L10" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>2.08</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.08</v>
+        <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.53</v>
+        <v>1.82</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="R10" t="n">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="S10" t="n">
-        <v>1.05</v>
+        <v>3.55</v>
       </c>
       <c r="T10" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="U10" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="X10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AA10" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN10" t="n">
         <v>27</v>
       </c>
-      <c r="AF10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>25</v>
-      </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="G11" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.26</v>
@@ -1909,10 +1909,10 @@
         <v>4.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q11" t="n">
         <v>1.49</v>
@@ -1924,16 +1924,16 @@
         <v>2.34</v>
       </c>
       <c r="T11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U11" t="n">
         <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2032,7 +2032,7 @@
         <v>1.01</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2047,7 +2047,7 @@
         <v>1.09</v>
       </c>
       <c r="P12" t="n">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="Q12" t="n">
         <v>1.01</v>
@@ -2068,7 +2068,7 @@
         <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G13" t="n">
         <v>2.92</v>
       </c>
       <c r="H13" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I13" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="J13" t="n">
         <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L13" t="n">
         <v>1.44</v>
@@ -2200,7 +2200,7 @@
         <v>2.12</v>
       </c>
       <c r="V13" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W13" t="n">
         <v>1.52</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="G14" t="n">
         <v>1.66</v>
@@ -2305,7 +2305,7 @@
         <v>5.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2329,10 +2329,10 @@
         <v>3.45</v>
       </c>
       <c r="T14" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>1.03</v>
+        <v>1.68</v>
       </c>
       <c r="V14" t="n">
         <v>1.09</v>
@@ -2422,37 +2422,37 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="G15" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H15" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="I15" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="J15" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K15" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L15" t="n">
         <v>1.73</v>
       </c>
       <c r="M15" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="N15" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="O15" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="P15" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q15" t="n">
         <v>3.3</v>
@@ -2461,55 +2461,55 @@
         <v>1.12</v>
       </c>
       <c r="S15" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="T15" t="n">
         <v>2.56</v>
       </c>
       <c r="U15" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V15" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="W15" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X15" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="AA15" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="n">
         <v>7.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
@@ -2518,16 +2518,16 @@
         <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AN15" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>240</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G16" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H16" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="L16" t="n">
         <v>1.5</v>
@@ -2581,40 +2581,40 @@
         <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O16" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="P16" t="n">
         <v>1.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="R16" t="n">
         <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="T16" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="U16" t="n">
         <v>1.7</v>
       </c>
       <c r="V16" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X16" t="n">
         <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
@@ -2623,7 +2623,7 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC16" t="n">
         <v>1000</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G18" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
         <v>5.1</v>
@@ -2857,22 +2857,22 @@
         <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="R18" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
         <v>4.1</v>
       </c>
       <c r="T18" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U18" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
         <v>1.2</v>
@@ -2893,7 +2893,7 @@
         <v>180</v>
       </c>
       <c r="AB18" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC18" t="n">
         <v>10</v>
@@ -2911,7 +2911,7 @@
         <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
         <v>120</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="G19" t="n">
         <v>3.8</v>
       </c>
       <c r="H19" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I19" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="J19" t="n">
         <v>2.76</v>
       </c>
       <c r="K19" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.42</v>
@@ -2998,19 +2998,19 @@
         <v>2.28</v>
       </c>
       <c r="R19" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
         <v>3.9</v>
       </c>
       <c r="T19" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="U19" t="n">
         <v>1.92</v>
       </c>
       <c r="V19" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W19" t="n">
         <v>1.36</v>
@@ -3052,7 +3052,7 @@
         <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK19" t="n">
         <v>60</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO19" t="n">
         <v>40</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G2" t="n">
         <v>2.86</v>
@@ -679,7 +679,7 @@
         <v>2.62</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
@@ -688,16 +688,16 @@
         <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q2" t="n">
         <v>1.65</v>
@@ -706,7 +706,7 @@
         <v>1.56</v>
       </c>
       <c r="S2" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T2" t="n">
         <v>1.57</v>
@@ -721,7 +721,7 @@
         <v>1.53</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
         <v>16.5</v>
@@ -751,7 +751,7 @@
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
         <v>32</v>
@@ -760,7 +760,7 @@
         <v>50</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
         <v>38</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="G3" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="H3" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>8.6</v>
+        <v>5.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="O3" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P3" t="n">
-        <v>1.83</v>
+        <v>2.78</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="V3" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="W3" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -970,19 +970,19 @@
         <v>1.88</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
         <v>3.45</v>
       </c>
       <c r="T4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U4" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V4" t="n">
         <v>1.13</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="G6" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="H6" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="I6" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>3.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R6" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.75</v>
       </c>
-      <c r="U6" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.81</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC6" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF6" t="n">
         <v>32</v>
       </c>
-      <c r="AF6" t="n">
-        <v>28</v>
-      </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ6" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AK6" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
         <v>55</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="G7" t="n">
         <v>1.38</v>
@@ -1354,7 +1354,7 @@
         <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="K7" t="n">
         <v>6.2</v>
@@ -1372,22 +1372,22 @@
         <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="R7" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S7" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T7" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U7" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
         <v>1.08</v>
@@ -1396,10 +1396,10 @@
         <v>3.6</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1411,10 +1411,10 @@
         <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1432,19 +1432,19 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I8" t="n">
         <v>2.7</v>
@@ -1501,31 +1501,31 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>2.08</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.08</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>1.3</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="V8" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W8" t="n">
         <v>1.5</v>
@@ -1534,7 +1534,7 @@
         <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
         <v>18.5</v>
@@ -1543,10 +1543,10 @@
         <v>40</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD8" t="n">
         <v>12.5</v>
@@ -1564,16 +1564,16 @@
         <v>16.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
         <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
         <v>80</v>
@@ -1582,7 +1582,7 @@
         <v>25</v>
       </c>
       <c r="AO8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.02</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.14</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1630,94 +1630,94 @@
         <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S9" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="U9" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="W9" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="X9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
         <v>26</v>
       </c>
-      <c r="AB9" t="n">
-        <v>24</v>
-      </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AL9" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="I11" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.26</v>
@@ -1924,16 +1924,16 @@
         <v>2.34</v>
       </c>
       <c r="T11" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U11" t="n">
         <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W11" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2161,7 +2161,7 @@
         <v>2.72</v>
       </c>
       <c r="I13" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J13" t="n">
         <v>3.35</v>
@@ -2197,7 +2197,7 @@
         <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
         <v>1.53</v>
@@ -2218,7 +2218,7 @@
         <v>42</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
         <v>8</v>
@@ -2311,10 +2311,10 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P14" t="n">
         <v>1.74</v>
@@ -2332,7 +2332,7 @@
         <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="V14" t="n">
         <v>1.09</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G15" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="H15" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="I15" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="J15" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K15" t="n">
         <v>3.1</v>
@@ -2470,46 +2470,46 @@
         <v>1.57</v>
       </c>
       <c r="V15" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="W15" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="X15" t="n">
         <v>6.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
         <v>80</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
@@ -2518,16 +2518,16 @@
         <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM15" t="n">
         <v>430</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AO15" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16">
@@ -2560,19 +2560,19 @@
         <v>1.99</v>
       </c>
       <c r="G16" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.5</v>
@@ -2584,7 +2584,7 @@
         <v>2.48</v>
       </c>
       <c r="O16" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="P16" t="n">
         <v>1.5</v>
@@ -2596,25 +2596,25 @@
         <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="T16" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="U16" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="V16" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W16" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X16" t="n">
         <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
@@ -2623,7 +2623,7 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
         <v>1000</v>
@@ -2719,7 +2719,7 @@
         <v>2.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P17" t="n">
         <v>1.51</v>
@@ -2764,7 +2764,7 @@
         <v>10</v>
       </c>
       <c r="AD17" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
@@ -2830,46 +2830,46 @@
         <v>1.75</v>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H18" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="I18" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P18" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
         <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="T18" t="n">
-        <v>2.06</v>
+        <v>1.72</v>
       </c>
       <c r="U18" t="n">
         <v>1.8</v>
@@ -2878,7 +2878,7 @@
         <v>1.2</v>
       </c>
       <c r="W18" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="X18" t="n">
         <v>13</v>
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="G19" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I19" t="n">
         <v>2.38</v>
       </c>
-      <c r="I19" t="n">
-        <v>2.68</v>
-      </c>
       <c r="J19" t="n">
-        <v>2.76</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
         <v>1.42</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
       </c>
       <c r="P19" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R19" t="n">
         <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U19" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V19" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="W19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AB19" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK19" t="n">
         <v>65</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AL19" t="n">
         <v>85</v>
       </c>
-      <c r="AK19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL19" t="n">
+      <c r="AM19" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN19" t="n">
         <v>80</v>
       </c>
-      <c r="AM19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>70</v>
-      </c>
       <c r="AO19" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G2" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="H2" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I2" t="n">
         <v>2.62</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S2" t="n">
         <v>2.46</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.64</v>
-      </c>
       <c r="T2" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="V2" t="n">
         <v>1.61</v>
       </c>
       <c r="W2" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z2" t="n">
         <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>29</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="n">
         <v>50</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL2" t="n">
         <v>38</v>
       </c>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AN2" t="n">
         <v>18.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>5.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -844,7 +844,7 @@
         <v>1.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="U3" t="n">
         <v>2.96</v>
@@ -949,7 +949,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
         <v>4.6</v>
@@ -964,7 +964,7 @@
         <v>3.55</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
         <v>1.88</v>
@@ -1072,46 +1072,46 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>2.54</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.45</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>1.46</v>
+        <v>2.08</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1210,34 +1210,34 @@
         <v>3.45</v>
       </c>
       <c r="G6" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
         <v>2.14</v>
       </c>
       <c r="I6" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q6" t="n">
         <v>1.94</v>
@@ -1255,7 +1255,7 @@
         <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W6" t="n">
         <v>1.35</v>
@@ -1348,58 +1348,58 @@
         <v>1.38</v>
       </c>
       <c r="H7" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="K7" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>1.11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.48</v>
+        <v>1.16</v>
       </c>
       <c r="R7" t="n">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="S7" t="n">
-        <v>2.22</v>
+        <v>1.16</v>
       </c>
       <c r="T7" t="n">
-        <v>1.94</v>
+        <v>1.03</v>
       </c>
       <c r="U7" t="n">
-        <v>1.84</v>
+        <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W7" t="n">
         <v>3.6</v>
       </c>
       <c r="X7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,43 +1408,43 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1480,7 +1480,7 @@
         <v>2.78</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H8" t="n">
         <v>2.5</v>
@@ -1507,13 +1507,13 @@
         <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q8" t="n">
         <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S8" t="n">
         <v>3</v>
@@ -1618,34 +1618,34 @@
         <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="I9" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R9" t="n">
         <v>1.61</v>
@@ -1660,7 +1660,7 @@
         <v>2.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
         <v>1.32</v>
@@ -1807,19 +1807,19 @@
         <v>15</v>
       </c>
       <c r="Z10" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AA10" t="n">
         <v>70</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AE10" t="n">
         <v>48</v>
@@ -1828,10 +1828,10 @@
         <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI10" t="n">
         <v>65</v>
@@ -1849,7 +1849,7 @@
         <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
         <v>48</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>English Premier League 2 - Div 1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,67 +1873,67 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Crystal Palace U21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Birmingham U21</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.05</v>
+        <v>1.04</v>
       </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="I11" t="n">
-        <v>2.32</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>950</v>
       </c>
       <c r="L11" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="P11" t="n">
-        <v>2.44</v>
+        <v>1.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="R11" t="n">
-        <v>1.59</v>
+        <v>1.85</v>
       </c>
       <c r="S11" t="n">
-        <v>2.34</v>
+        <v>1.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>1.4</v>
+        <v>3.35</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1951,10 +1951,10 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English Premier League 2 - Div 1</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,67 +2008,67 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Crystal Palace U21</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Birmingham U21</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M12" t="n">
         <v>1.04</v>
       </c>
-      <c r="G12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K12" t="n">
-        <v>950</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N12" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>2.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="R12" t="n">
-        <v>1.85</v>
+        <v>1.59</v>
       </c>
       <c r="S12" t="n">
-        <v>1.6</v>
+        <v>2.34</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="V12" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="W12" t="n">
-        <v>3.35</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2086,7 +2086,7 @@
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2155,13 +2155,13 @@
         <v>2.78</v>
       </c>
       <c r="G13" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H13" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I13" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J13" t="n">
         <v>3.35</v>
@@ -2182,7 +2182,7 @@
         <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q13" t="n">
         <v>2</v>
@@ -2308,7 +2308,7 @@
         <v>1.37</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
         <v>3.15</v>
@@ -2332,7 +2332,7 @@
         <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="V14" t="n">
         <v>1.09</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,108 +2408,108 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="O15" t="n">
-        <v>1.77</v>
+        <v>1.02</v>
       </c>
       <c r="P15" t="n">
-        <v>1.38</v>
+        <v>1.08</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.3</v>
+        <v>1.46</v>
       </c>
       <c r="R15" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="S15" t="n">
-        <v>8</v>
+        <v>1.46</v>
       </c>
       <c r="T15" t="n">
-        <v>2.56</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
@@ -2518,22 +2518,22 @@
         <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,103 +2548,103 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Defensor Sporting</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Wanderers (Uru)</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.99</v>
+        <v>3.6</v>
       </c>
       <c r="G16" t="n">
-        <v>2.16</v>
+        <v>3.95</v>
       </c>
       <c r="H16" t="n">
-        <v>4.5</v>
+        <v>2.38</v>
       </c>
       <c r="I16" t="n">
-        <v>5.2</v>
+        <v>2.54</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="N16" t="n">
-        <v>2.48</v>
+        <v>2.14</v>
       </c>
       <c r="O16" t="n">
-        <v>1.55</v>
+        <v>1.77</v>
       </c>
       <c r="P16" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.46</v>
+        <v>3.3</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="S16" t="n">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="T16" t="n">
-        <v>2.2</v>
+        <v>2.56</v>
       </c>
       <c r="U16" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="V16" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="W16" t="n">
-        <v>1.86</v>
+        <v>1.35</v>
       </c>
       <c r="X16" t="n">
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH16" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ16" t="n">
         <v>1000</v>
@@ -2653,22 +2653,22 @@
         <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,108 +2678,108 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Defensor Sporting</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>Wanderers (Uru)</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.2</v>
+        <v>1.99</v>
       </c>
       <c r="G17" t="n">
-        <v>6.2</v>
+        <v>2.14</v>
       </c>
       <c r="H17" t="n">
-        <v>1.83</v>
+        <v>4.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.1</v>
+        <v>5.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="O17" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P17" t="n">
         <v>1.51</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="R17" t="n">
         <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>1.23</v>
       </c>
       <c r="W17" t="n">
-        <v>1.2</v>
+        <v>1.87</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
         <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
         <v>1000</v>
@@ -2797,13 +2797,13 @@
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="G18" t="n">
-        <v>1.86</v>
+        <v>6.2</v>
       </c>
       <c r="H18" t="n">
-        <v>4.4</v>
+        <v>1.83</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="P18" t="n">
-        <v>1.76</v>
+        <v>1.51</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.72</v>
+        <v>2.06</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="V18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.2</v>
       </c>
-      <c r="W18" t="n">
-        <v>2.16</v>
-      </c>
       <c r="X18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>19</v>
+        <v>7.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.6</v>
+        <v>15</v>
       </c>
       <c r="AC18" t="n">
         <v>10</v>
       </c>
       <c r="AD18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG18" t="n">
         <v>27</v>
       </c>
-      <c r="AE18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>150</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,60 +2948,60 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.55</v>
+        <v>1.72</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>1.84</v>
       </c>
       <c r="H19" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.38</v>
+        <v>5.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="P19" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="S19" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="T19" t="n">
         <v>1.94</v>
@@ -3010,63 +3010,198 @@
         <v>1.91</v>
       </c>
       <c r="V19" t="n">
-        <v>1.72</v>
+        <v>1.2</v>
       </c>
       <c r="W19" t="n">
-        <v>1.33</v>
+        <v>2.18</v>
       </c>
       <c r="X19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF19" t="n">
         <v>11</v>
       </c>
-      <c r="Y19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>26</v>
-      </c>
       <c r="AG19" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK19" t="n">
         <v>21</v>
       </c>
-      <c r="AI19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>65</v>
-      </c>
       <c r="AL19" t="n">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="n">
         <v>170</v>
       </c>
       <c r="AN19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X20" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN20" t="n">
         <v>80</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO20" t="n">
         <v>26</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G2" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H2" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I2" t="n">
         <v>2.62</v>
@@ -691,22 +691,22 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="T2" t="n">
         <v>1.54</v>
@@ -724,28 +724,28 @@
         <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Z2" t="n">
         <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AF2" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
@@ -757,22 +757,22 @@
         <v>36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AK2" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN2" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.12</v>
+        <v>1.67</v>
       </c>
       <c r="G3" t="n">
-        <v>2.36</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>5.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
         <v>5.9</v>
@@ -832,82 +832,82 @@
         <v>1.12</v>
       </c>
       <c r="P3" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="T3" t="n">
         <v>1.47</v>
       </c>
       <c r="U3" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="V3" t="n">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
-        <v>1.73</v>
+        <v>2.24</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -952,10 +952,10 @@
         <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -967,7 +967,7 @@
         <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q4" t="n">
         <v>1.95</v>
@@ -991,7 +991,7 @@
         <v>2.72</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Y4" t="n">
         <v>28</v>
@@ -1075,19 +1075,19 @@
         <v>2.54</v>
       </c>
       <c r="G5" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
         <v>2.8</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>5.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.41</v>
@@ -1096,7 +1096,7 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
@@ -1105,25 +1105,25 @@
         <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W5" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1210,7 +1210,7 @@
         <v>3.45</v>
       </c>
       <c r="G6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H6" t="n">
         <v>2.14</v>
@@ -1225,7 +1225,7 @@
         <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1258,7 +1258,7 @@
         <v>1.76</v>
       </c>
       <c r="W6" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X6" t="n">
         <v>17.5</v>
@@ -1345,61 +1345,61 @@
         <v>1.31</v>
       </c>
       <c r="G7" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
         <v>14</v>
       </c>
       <c r="J7" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="K7" t="n">
         <v>6.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.11</v>
+        <v>5.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>1.25</v>
+        <v>2.44</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.16</v>
+        <v>1.55</v>
       </c>
       <c r="R7" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="S7" t="n">
-        <v>1.16</v>
+        <v>2.38</v>
       </c>
       <c r="T7" t="n">
-        <v>1.03</v>
+        <v>1.93</v>
       </c>
       <c r="U7" t="n">
-        <v>1.03</v>
+        <v>1.88</v>
       </c>
       <c r="V7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,22 +1408,22 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
         <v>1000</v>
@@ -1432,19 +1432,19 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1489,10 +1489,10 @@
         <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L8" t="n">
         <v>1.39</v>
@@ -1507,7 +1507,7 @@
         <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" t="n">
         <v>1.8</v>
@@ -1582,7 +1582,7 @@
         <v>25</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G9" t="n">
         <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.23</v>
@@ -1645,7 +1645,7 @@
         <v>2.52</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
         <v>1.61</v>
@@ -1657,19 +1657,19 @@
         <v>1.57</v>
       </c>
       <c r="U9" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="W9" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1687,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>1000</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK9" t="n">
         <v>48</v>
@@ -1711,13 +1711,13 @@
         <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1750,13 +1750,13 @@
         <v>2.4</v>
       </c>
       <c r="G10" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
         <v>3.25</v>
@@ -1765,10 +1765,10 @@
         <v>3.35</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
         <v>3.4</v>
@@ -1777,7 +1777,7 @@
         <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q10" t="n">
         <v>1.99</v>
@@ -1786,10 +1786,10 @@
         <v>1.32</v>
       </c>
       <c r="S10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U10" t="n">
         <v>2.06</v>
@@ -1801,13 +1801,13 @@
         <v>1.64</v>
       </c>
       <c r="X10" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
         <v>70</v>
@@ -1831,10 +1831,10 @@
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
         <v>42</v>
@@ -1849,10 +1849,10 @@
         <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -1885,16 +1885,16 @@
         <v>1.04</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="K11" t="n">
         <v>950</v>
@@ -1906,7 +1906,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="O11" t="n">
         <v>1.09</v>
@@ -1924,10 +1924,10 @@
         <v>1.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V11" t="n">
         <v>1.01</v>
@@ -2020,43 +2020,43 @@
         <v>3.05</v>
       </c>
       <c r="G12" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="R12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S12" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="T12" t="n">
         <v>1.52</v>
@@ -2065,7 +2065,7 @@
         <v>2.52</v>
       </c>
       <c r="V12" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W12" t="n">
         <v>1.44</v>
@@ -2086,7 +2086,7 @@
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2098,10 +2098,10 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G13" t="n">
         <v>2.9</v>
       </c>
       <c r="H13" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I13" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
         <v>3.45</v>
@@ -2179,7 +2179,7 @@
         <v>3.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
         <v>1.89</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G14" t="n">
         <v>1.66</v>
@@ -2320,7 +2320,7 @@
         <v>1.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
         <v>1.27</v>
@@ -2335,7 +2335,7 @@
         <v>1.68</v>
       </c>
       <c r="V14" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W14" t="n">
         <v>2.52</v>
@@ -2446,7 +2446,7 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="O15" t="n">
         <v>1.02</v>
@@ -2464,10 +2464,10 @@
         <v>1.46</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V15" t="n">
         <v>1.01</v>
@@ -2563,10 +2563,10 @@
         <v>3.95</v>
       </c>
       <c r="H16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J16" t="n">
         <v>2.94</v>
@@ -2590,25 +2590,25 @@
         <v>1.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="R16" t="n">
         <v>1.12</v>
       </c>
       <c r="S16" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="T16" t="n">
         <v>2.56</v>
       </c>
       <c r="U16" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W16" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X16" t="n">
         <v>6.8</v>
@@ -2617,10 +2617,10 @@
         <v>6.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB16" t="n">
         <v>8.4</v>
@@ -2629,10 +2629,10 @@
         <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AF16" t="n">
         <v>24</v>
@@ -2662,7 +2662,7 @@
         <v>170</v>
       </c>
       <c r="AO16" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17">
@@ -2695,19 +2695,19 @@
         <v>1.99</v>
       </c>
       <c r="G17" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H17" t="n">
         <v>4.6</v>
       </c>
       <c r="I17" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.5</v>
@@ -2716,10 +2716,10 @@
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="O17" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P17" t="n">
         <v>1.51</v>
@@ -2734,16 +2734,16 @@
         <v>5.3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U17" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="V17" t="n">
         <v>1.23</v>
       </c>
       <c r="W17" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X17" t="n">
         <v>10</v>
@@ -2761,7 +2761,7 @@
         <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
@@ -2833,16 +2833,16 @@
         <v>6.2</v>
       </c>
       <c r="H18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="I18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J18" t="n">
         <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
         <v>1.48</v>
@@ -2854,7 +2854,7 @@
         <v>2.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P18" t="n">
         <v>1.51</v>
@@ -2869,16 +2869,16 @@
         <v>4.8</v>
       </c>
       <c r="T18" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="U18" t="n">
         <v>1.64</v>
       </c>
       <c r="V18" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="W18" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
@@ -2887,7 +2887,7 @@
         <v>7.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
@@ -2905,10 +2905,10 @@
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AG18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="G19" t="n">
         <v>1.84</v>
@@ -2971,34 +2971,34 @@
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J19" t="n">
         <v>3.7</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="O19" t="n">
         <v>1.35</v>
       </c>
       <c r="P19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R19" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S19" t="n">
         <v>3.6</v>
@@ -3007,10 +3007,10 @@
         <v>1.94</v>
       </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V19" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W19" t="n">
         <v>2.18</v>
@@ -3142,7 +3142,7 @@
         <v>1.94</v>
       </c>
       <c r="U20" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V20" t="n">
         <v>1.72</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G2" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H2" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P2" t="n">
         <v>2.62</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="S2" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="T2" t="n">
         <v>1.54</v>
       </c>
       <c r="U2" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="V2" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="W2" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AB2" t="n">
         <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
         <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AK2" t="n">
         <v>26</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,73 +802,73 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="I3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J3" t="n">
         <v>5.3</v>
       </c>
-      <c r="J3" t="n">
-        <v>4.3</v>
-      </c>
       <c r="K3" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>1.11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U3" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="W3" t="n">
-        <v>2.24</v>
+        <v>2.68</v>
       </c>
       <c r="X3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="Z3" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="n">
-        <v>110</v>
+        <v>830</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC3" t="n">
         <v>14</v>
@@ -877,37 +877,37 @@
         <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AL3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G4" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
         <v>7.4</v>
       </c>
       <c r="I4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
         <v>4.7</v>
@@ -982,19 +982,19 @@
         <v>2.06</v>
       </c>
       <c r="U4" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="V4" t="n">
         <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X4" t="n">
         <v>15.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z4" t="n">
         <v>85</v>
@@ -1003,10 +1003,10 @@
         <v>340</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
         <v>38</v>
@@ -1015,10 +1015,10 @@
         <v>170</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
         <v>32</v>
@@ -1027,19 +1027,19 @@
         <v>150</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
         <v>210</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO4" t="n">
         <v>250</v>
@@ -1078,28 +1078,28 @@
         <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I5" t="n">
         <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K5" t="n">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
         <v>1.11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P5" t="n">
         <v>1.5</v>
@@ -1111,7 +1111,7 @@
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1237,7 +1237,7 @@
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q6" t="n">
         <v>1.94</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="G7" t="n">
         <v>1.37</v>
@@ -1351,55 +1351,55 @@
         <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="J7" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="K7" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="R7" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="T7" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="V7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W7" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="X7" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1420,19 +1420,19 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
         <v>17</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1480,19 +1480,19 @@
         <v>2.78</v>
       </c>
       <c r="G8" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="H8" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="I8" t="n">
         <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
         <v>1.39</v>
@@ -1510,34 +1510,34 @@
         <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
         <v>1.41</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U8" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V8" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W8" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
         <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
         <v>40</v>
@@ -1552,7 +1552,7 @@
         <v>12.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF8" t="n">
         <v>21</v>
@@ -1567,13 +1567,13 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK8" t="n">
         <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
         <v>80</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="G9" t="n">
         <v>4.2</v>
@@ -1627,7 +1627,7 @@
         <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.23</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="G10" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
         <v>3.35</v>
@@ -1771,13 +1771,13 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O10" t="n">
         <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q10" t="n">
         <v>1.99</v>
@@ -1789,28 +1789,28 @@
         <v>3.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V10" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W10" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB10" t="n">
         <v>10.5</v>
@@ -1822,10 +1822,10 @@
         <v>14.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
@@ -1840,7 +1840,7 @@
         <v>42</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL10" t="n">
         <v>50</v>
@@ -1903,7 +1903,7 @@
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
         <v>1.11</v>
@@ -1915,7 +1915,7 @@
         <v>1.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R11" t="n">
         <v>1.85</v>
@@ -2020,19 +2020,19 @@
         <v>3.05</v>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H12" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="I12" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J12" t="n">
         <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.25</v>
@@ -2053,22 +2053,22 @@
         <v>1.54</v>
       </c>
       <c r="R12" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S12" t="n">
         <v>2.38</v>
       </c>
       <c r="T12" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="U12" t="n">
         <v>2.52</v>
       </c>
       <c r="V12" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2098,7 +2098,7 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
         <v>19</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G13" t="n">
         <v>2.9</v>
@@ -2161,7 +2161,7 @@
         <v>2.78</v>
       </c>
       <c r="I13" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J13" t="n">
         <v>3.4</v>
@@ -2179,28 +2179,28 @@
         <v>3.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P13" t="n">
         <v>1.89</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
         <v>1.35</v>
       </c>
       <c r="S13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U13" t="n">
         <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W13" t="n">
         <v>1.52</v>
@@ -2305,7 +2305,7 @@
         <v>5.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2320,7 +2320,7 @@
         <v>1.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
         <v>1.27</v>
@@ -2332,7 +2332,7 @@
         <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V14" t="n">
         <v>1.1</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="G16" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="I16" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="J16" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="L16" t="n">
         <v>1.73</v>
@@ -2587,7 +2587,7 @@
         <v>1.77</v>
       </c>
       <c r="P16" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="Q16" t="n">
         <v>3.55</v>
@@ -2605,49 +2605,49 @@
         <v>1.57</v>
       </c>
       <c r="V16" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W16" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X16" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="Y16" t="n">
         <v>6.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA16" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="AF16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG16" t="n">
         <v>26</v>
       </c>
       <c r="AH16" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="n">
         <v>1000</v>
@@ -2656,13 +2656,13 @@
         <v>150</v>
       </c>
       <c r="AM16" t="n">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="AN16" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AO16" t="n">
-        <v>330</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H17" t="n">
         <v>4.6</v>
       </c>
       <c r="I17" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
@@ -2716,10 +2716,10 @@
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="O17" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="P17" t="n">
         <v>1.51</v>
@@ -2734,10 +2734,10 @@
         <v>5.3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U17" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V17" t="n">
         <v>1.23</v>
@@ -2776,7 +2776,7 @@
         <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G18" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="H18" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="I18" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="J18" t="n">
         <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
         <v>1.48</v>
@@ -2854,49 +2854,49 @@
         <v>2.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P18" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R18" t="n">
         <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="T18" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V18" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="W18" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y18" t="n">
         <v>7.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD18" t="n">
         <v>12</v>
@@ -2908,7 +2908,7 @@
         <v>46</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
@@ -2971,7 +2971,7 @@
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J19" t="n">
         <v>3.7</v>
@@ -2980,28 +2980,28 @@
         <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O19" t="n">
         <v>1.35</v>
       </c>
       <c r="P19" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="R19" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S19" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
         <v>1.94</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -3106,13 +3106,13 @@
         <v>2.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J20" t="n">
         <v>3.15</v>
       </c>
       <c r="K20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.42</v>
@@ -3121,7 +3121,7 @@
         <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
@@ -3130,22 +3130,22 @@
         <v>1.67</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R20" t="n">
         <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T20" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U20" t="n">
         <v>1.9</v>
       </c>
       <c r="V20" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W20" t="n">
         <v>1.33</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -667,28 +667,28 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G2" t="n">
         <v>2.86</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I2" t="n">
         <v>2.58</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
         <v>5.8</v>
@@ -703,16 +703,16 @@
         <v>1.59</v>
       </c>
       <c r="R2" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>2.44</v>
       </c>
       <c r="T2" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U2" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="V2" t="n">
         <v>1.63</v>
@@ -724,13 +724,13 @@
         <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Z2" t="n">
         <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AB2" t="n">
         <v>17</v>
@@ -739,7 +739,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -757,7 +757,7 @@
         <v>48</v>
       </c>
       <c r="AJ2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK2" t="n">
         <v>26</v>
@@ -766,7 +766,7 @@
         <v>48</v>
       </c>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AN2" t="n">
         <v>19</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G3" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="I3" t="n">
         <v>6.6</v>
       </c>
       <c r="J3" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.17</v>
@@ -826,34 +826,34 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.11</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.1</v>
-      </c>
       <c r="P3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q3" t="n">
         <v>1.33</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="T3" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="U3" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W3" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -871,10 +871,10 @@
         <v>19.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>65</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H4" t="n">
         <v>7.4</v>
       </c>
       <c r="I4" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.39</v>
@@ -961,7 +961,7 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -988,13 +988,13 @@
         <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="X4" t="n">
         <v>15.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z4" t="n">
         <v>85</v>
@@ -1003,7 +1003,7 @@
         <v>340</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC4" t="n">
         <v>11.5</v>
@@ -1018,7 +1018,7 @@
         <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>32</v>
@@ -1039,7 +1039,7 @@
         <v>210</v>
       </c>
       <c r="AN4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
         <v>250</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.54</v>
+        <v>2.88</v>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="J5" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
         <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>1.11</v>
+        <v>2.78</v>
       </c>
       <c r="O5" t="n">
-        <v>1.05</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S5" t="n">
-        <v>2.14</v>
+        <v>3.95</v>
       </c>
       <c r="T5" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
-        <v>1.03</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G6" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
         <v>2.14</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>3.75</v>
@@ -1255,10 +1255,10 @@
         <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="W6" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X6" t="n">
         <v>17.5</v>
@@ -1354,7 +1354,7 @@
         <v>12.5</v>
       </c>
       <c r="J7" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K7" t="n">
         <v>6.2</v>
@@ -1366,28 +1366,28 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S7" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="T7" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U7" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="V7" t="n">
         <v>1.09</v>
@@ -1396,7 +1396,7 @@
         <v>3.6</v>
       </c>
       <c r="X7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD7" t="n">
         <v>48</v>
@@ -1420,7 +1420,7 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="G8" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.7</v>
       </c>
       <c r="L8" t="n">
         <v>1.39</v>
@@ -1501,46 +1501,46 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="O8" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V8" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="W8" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="X8" t="n">
         <v>15.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
         <v>18</v>
       </c>
       <c r="AA8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="n">
         <v>13</v>
@@ -1564,7 +1564,7 @@
         <v>16.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AJ8" t="n">
         <v>48</v>
@@ -1573,13 +1573,13 @@
         <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO8" t="n">
         <v>22</v>
@@ -1615,7 +1615,7 @@
         <v>4.1</v>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H9" t="n">
         <v>1.89</v>
@@ -1624,7 +1624,7 @@
         <v>1.93</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>4.4</v>
@@ -1636,7 +1636,7 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.19</v>
@@ -1645,10 +1645,10 @@
         <v>2.52</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>2.4</v>
@@ -1657,7 +1657,7 @@
         <v>1.57</v>
       </c>
       <c r="U9" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V9" t="n">
         <v>2.06</v>
@@ -1666,40 +1666,40 @@
         <v>1.31</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="n">
         <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
         <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="n">
         <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ9" t="n">
         <v>90</v>
@@ -1714,10 +1714,10 @@
         <v>75</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="10">
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G10" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
         <v>3.65</v>
@@ -1762,7 +1762,7 @@
         <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
         <v>1.36</v>
@@ -1780,7 +1780,7 @@
         <v>1.84</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
         <v>1.32</v>
@@ -1789,70 +1789,70 @@
         <v>3.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U10" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W10" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
         <v>65</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="AD10" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
         <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
         <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.04</v>
+        <v>1.18</v>
       </c>
       <c r="G11" t="n">
         <v>5</v>
@@ -1909,7 +1909,7 @@
         <v>1.11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P11" t="n">
         <v>1.24</v>
@@ -1918,10 +1918,10 @@
         <v>1.02</v>
       </c>
       <c r="R11" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="S11" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
         <v>1.03</v>
@@ -2017,40 +2017,40 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="G12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
         <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
         <v>5.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
         <v>2.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R12" t="n">
         <v>1.61</v>
@@ -2059,16 +2059,16 @@
         <v>2.38</v>
       </c>
       <c r="T12" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U12" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V12" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="W12" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2101,10 +2101,10 @@
         <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2176,13 +2176,13 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O13" t="n">
         <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q13" t="n">
         <v>2.02</v>
@@ -2194,7 +2194,7 @@
         <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
         <v>2.2</v>
@@ -2212,10 +2212,10 @@
         <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AB13" t="n">
         <v>11.5</v>
@@ -2227,16 +2227,16 @@
         <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF13" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AG13" t="n">
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
         <v>55</v>
@@ -2245,7 +2245,7 @@
         <v>55</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
         <v>55</v>
@@ -2254,7 +2254,7 @@
         <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AO13" t="n">
         <v>32</v>
@@ -2299,7 +2299,7 @@
         <v>11.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
         <v>5.4</v>
@@ -2422,97 +2422,97 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>1.11</v>
+        <v>2.58</v>
       </c>
       <c r="O15" t="n">
-        <v>1.02</v>
+        <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>1.08</v>
+        <v>1.54</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.46</v>
+        <v>2.14</v>
       </c>
       <c r="R15" t="n">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="S15" t="n">
-        <v>1.46</v>
+        <v>3.75</v>
       </c>
       <c r="T15" t="n">
-        <v>1.03</v>
+        <v>1.7</v>
       </c>
       <c r="U15" t="n">
-        <v>1.03</v>
+        <v>1.59</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK15" t="n">
         <v>1000</v>
@@ -2521,13 +2521,13 @@
         <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -2557,25 +2557,25 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="G16" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H16" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="J16" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="K16" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="L16" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="M16" t="n">
         <v>1.18</v>
@@ -2584,7 +2584,7 @@
         <v>2.14</v>
       </c>
       <c r="O16" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="P16" t="n">
         <v>1.36</v>
@@ -2599,46 +2599,46 @@
         <v>8.6</v>
       </c>
       <c r="T16" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="U16" t="n">
         <v>1.57</v>
       </c>
       <c r="V16" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="W16" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X16" t="n">
         <v>6.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AB16" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AH16" t="n">
         <v>34</v>
@@ -2647,22 +2647,22 @@
         <v>110</v>
       </c>
       <c r="AJ16" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="n">
         <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AM16" t="n">
         <v>410</v>
       </c>
       <c r="AN16" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AO16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
@@ -2695,19 +2695,19 @@
         <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I17" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L17" t="n">
         <v>1.5</v>
@@ -2719,13 +2719,13 @@
         <v>2.54</v>
       </c>
       <c r="O17" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="P17" t="n">
         <v>1.51</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="R17" t="n">
         <v>1.18</v>
@@ -2734,19 +2734,19 @@
         <v>5.3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U17" t="n">
         <v>1.71</v>
       </c>
       <c r="V17" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W17" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
         <v>1000</v>
@@ -2827,40 +2827,40 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G18" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H18" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="I18" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="L18" t="n">
         <v>1.48</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
         <v>2.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P18" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="R18" t="n">
         <v>1.18</v>
@@ -2869,46 +2869,46 @@
         <v>5.5</v>
       </c>
       <c r="T18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U18" t="n">
         <v>1.65</v>
       </c>
       <c r="V18" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="W18" t="n">
         <v>1.22</v>
       </c>
       <c r="X18" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
@@ -2932,7 +2932,7 @@
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G19" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I19" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J19" t="n">
         <v>3.7</v>
@@ -2980,7 +2980,7 @@
         <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -3004,16 +3004,16 @@
         <v>4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U19" t="n">
         <v>1.9</v>
       </c>
       <c r="V19" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X19" t="n">
         <v>15</v>
@@ -3022,7 +3022,7 @@
         <v>19</v>
       </c>
       <c r="Z19" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
         <v>160</v>
@@ -3058,7 +3058,7 @@
         <v>21</v>
       </c>
       <c r="AL19" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM19" t="n">
         <v>170</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
         <v>2.86</v>
       </c>
       <c r="H2" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I2" t="n">
         <v>2.58</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
@@ -691,13 +691,13 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q2" t="n">
         <v>1.59</v>
@@ -706,73 +706,73 @@
         <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T2" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U2" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="V2" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>1.53</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AM2" t="n">
-        <v>330</v>
+        <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H3" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
         <v>6.6</v>
@@ -817,10 +817,10 @@
         <v>5.1</v>
       </c>
       <c r="K3" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -832,7 +832,7 @@
         <v>1.11</v>
       </c>
       <c r="P3" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
         <v>1.33</v>
@@ -853,7 +853,7 @@
         <v>1.19</v>
       </c>
       <c r="W3" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,13 +868,13 @@
         <v>830</v>
       </c>
       <c r="AB3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>65</v>
@@ -886,7 +886,7 @@
         <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>180</v>
@@ -898,13 +898,13 @@
         <v>14</v>
       </c>
       <c r="AL3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G4" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J4" t="n">
         <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.39</v>
@@ -964,13 +964,13 @@
         <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
         <v>1.34</v>
@@ -988,7 +988,7 @@
         <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="X4" t="n">
         <v>15.5</v>
@@ -1003,7 +1003,7 @@
         <v>340</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC4" t="n">
         <v>11.5</v>
@@ -1015,7 +1015,7 @@
         <v>170</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1027,13 +1027,13 @@
         <v>150</v>
       </c>
       <c r="AJ4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK4" t="n">
         <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM4" t="n">
         <v>210</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="G5" t="n">
         <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="I5" t="n">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.51</v>
@@ -1096,34 +1096,34 @@
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O5" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.44</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.43</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1210,16 +1210,16 @@
         <v>3.5</v>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H6" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I6" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
         <v>3.75</v>
@@ -1237,16 +1237,16 @@
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R6" t="n">
         <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T6" t="n">
         <v>1.76</v>
@@ -1255,7 +1255,7 @@
         <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="W6" t="n">
         <v>1.35</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G7" t="n">
         <v>1.37</v>
@@ -1381,16 +1381,16 @@
         <v>1.49</v>
       </c>
       <c r="S7" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T7" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="U7" t="n">
         <v>1.79</v>
       </c>
       <c r="V7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W7" t="n">
         <v>3.6</v>
@@ -1435,7 +1435,7 @@
         <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL7" t="n">
         <v>42</v>
@@ -1483,10 +1483,10 @@
         <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I8" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J8" t="n">
         <v>3.55</v>
@@ -1501,13 +1501,13 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q8" t="n">
         <v>1.88</v>
@@ -1528,7 +1528,7 @@
         <v>1.6</v>
       </c>
       <c r="W8" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
         <v>15.5</v>
@@ -1615,19 +1615,19 @@
         <v>4.1</v>
       </c>
       <c r="G9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="I9" t="n">
         <v>1.93</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.23</v>
@@ -1636,7 +1636,7 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.19</v>
@@ -1666,7 +1666,7 @@
         <v>1.31</v>
       </c>
       <c r="X9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y9" t="n">
         <v>13.5</v>
@@ -1675,10 +1675,10 @@
         <v>14.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AB9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
         <v>10</v>
@@ -1690,10 +1690,10 @@
         <v>17.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AH9" t="n">
         <v>16</v>
@@ -1714,7 +1714,7 @@
         <v>75</v>
       </c>
       <c r="AN9" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AO9" t="n">
         <v>8.6</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G10" t="n">
         <v>2.46</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
         <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.36</v>
@@ -1774,22 +1774,22 @@
         <v>3.45</v>
       </c>
       <c r="O10" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R10" t="n">
         <v>1.32</v>
       </c>
       <c r="S10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T10" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U10" t="n">
         <v>2.12</v>
@@ -1852,7 +1852,7 @@
         <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -1903,7 +1903,7 @@
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
         <v>1.11</v>
@@ -2017,37 +2017,37 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="H12" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
         <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="Q12" t="n">
         <v>1.55</v>
@@ -2062,25 +2062,25 @@
         <v>1.53</v>
       </c>
       <c r="U12" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="V12" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="W12" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="n">
         <v>1000</v>
@@ -2092,7 +2092,7 @@
         <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF12" t="n">
         <v>1000</v>
@@ -2104,7 +2104,7 @@
         <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
@@ -2122,7 +2122,7 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G13" t="n">
         <v>2.9</v>
@@ -2161,7 +2161,7 @@
         <v>2.78</v>
       </c>
       <c r="I13" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J13" t="n">
         <v>3.4</v>
@@ -2176,7 +2176,7 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.35</v>
@@ -2425,19 +2425,19 @@
         <v>3.7</v>
       </c>
       <c r="G15" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
         <v>2.14</v>
       </c>
       <c r="I15" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2458,22 +2458,22 @@
         <v>2.14</v>
       </c>
       <c r="R15" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="n">
         <v>1.59</v>
       </c>
       <c r="V15" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W15" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="X15" t="n">
         <v>12</v>
@@ -2527,7 +2527,7 @@
         <v>90</v>
       </c>
       <c r="AO15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="G16" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="I16" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J16" t="n">
         <v>2.86</v>
@@ -2575,10 +2575,10 @@
         <v>2.96</v>
       </c>
       <c r="L16" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="N16" t="n">
         <v>2.14</v>
@@ -2599,46 +2599,46 @@
         <v>8.6</v>
       </c>
       <c r="T16" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="U16" t="n">
         <v>1.57</v>
       </c>
       <c r="V16" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W16" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X16" t="n">
         <v>6.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD16" t="n">
         <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AF16" t="n">
         <v>23</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AH16" t="n">
         <v>34</v>
@@ -2662,7 +2662,7 @@
         <v>150</v>
       </c>
       <c r="AO16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H17" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I17" t="n">
         <v>5.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.5</v>
@@ -2716,13 +2716,13 @@
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.56</v>
       </c>
       <c r="P17" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q17" t="n">
         <v>2.4</v>
@@ -2731,19 +2731,19 @@
         <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="T17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U17" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="V17" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W17" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X17" t="n">
         <v>10.5</v>
@@ -2776,7 +2776,7 @@
         <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="G18" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H18" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I18" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J18" t="n">
         <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L18" t="n">
         <v>1.48</v>
@@ -2851,10 +2851,10 @@
         <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P18" t="n">
         <v>1.51</v>
@@ -2875,7 +2875,7 @@
         <v>1.65</v>
       </c>
       <c r="V18" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="W18" t="n">
         <v>1.22</v>
@@ -2962,85 +2962,85 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="G19" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="H19" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="I19" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="J19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.7</v>
       </c>
-      <c r="K19" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="P19" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="R19" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="S19" t="n">
         <v>4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U19" t="n">
         <v>1.9</v>
       </c>
       <c r="V19" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W19" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
         <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB19" t="n">
         <v>8.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
@@ -3049,22 +3049,22 @@
         <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AK19" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AO19" t="n">
         <v>110</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -3106,7 +3106,7 @@
         <v>2.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J20" t="n">
         <v>3.15</v>
@@ -3121,7 +3121,7 @@
         <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
@@ -3136,7 +3136,7 @@
         <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="T20" t="n">
         <v>1.96</v>
@@ -3151,37 +3151,37 @@
         <v>1.33</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="Z20" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AA20" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AD20" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AE20" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI20" t="n">
         <v>70</v>
@@ -3202,7 +3202,7 @@
         <v>80</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -670,7 +670,7 @@
         <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
         <v>2.5</v>
@@ -679,7 +679,7 @@
         <v>2.58</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
@@ -700,13 +700,13 @@
         <v>2.64</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R2" t="n">
         <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T2" t="n">
         <v>1.52</v>
@@ -715,10 +715,10 @@
         <v>2.74</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W2" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X2" t="n">
         <v>25</v>
@@ -727,7 +727,7 @@
         <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
         <v>38</v>
@@ -751,13 +751,13 @@
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI2" t="n">
         <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK2" t="n">
         <v>25</v>
@@ -808,16 +808,16 @@
         <v>1.58</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J3" t="n">
         <v>5.1</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.19</v>
@@ -832,34 +832,34 @@
         <v>1.11</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
         <v>1.33</v>
       </c>
       <c r="R3" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="S3" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="T3" t="n">
         <v>1.47</v>
       </c>
       <c r="U3" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="V3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="Z3" t="n">
         <v>70</v>
@@ -868,19 +868,19 @@
         <v>830</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG3" t="n">
         <v>11.5</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G4" t="n">
         <v>1.57</v>
@@ -952,7 +952,7 @@
         <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.39</v>
@@ -964,7 +964,7 @@
         <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
         <v>1.9</v>
@@ -982,7 +982,7 @@
         <v>2.06</v>
       </c>
       <c r="U4" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
         <v>1.13</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G5" t="n">
         <v>3.3</v>
@@ -1084,10 +1084,10 @@
         <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
         <v>1.51</v>
@@ -1108,7 +1108,7 @@
         <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S5" t="n">
         <v>4.1</v>
@@ -1117,10 +1117,10 @@
         <v>1.92</v>
       </c>
       <c r="U5" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W5" t="n">
         <v>1.44</v>
@@ -1210,7 +1210,7 @@
         <v>3.5</v>
       </c>
       <c r="G6" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
         <v>2.16</v>
@@ -1258,7 +1258,7 @@
         <v>1.76</v>
       </c>
       <c r="W6" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X6" t="n">
         <v>17.5</v>
@@ -1750,10 +1750,10 @@
         <v>2.3</v>
       </c>
       <c r="G10" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I10" t="n">
         <v>3.7</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>1.33</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
@@ -1894,46 +1894,46 @@
         <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>1.25</v>
+        <v>5.6</v>
       </c>
       <c r="K11" t="n">
         <v>950</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.11</v>
+        <v>7.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>3.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="R11" t="n">
-        <v>1.72</v>
+        <v>2.08</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.03</v>
+        <v>1.64</v>
       </c>
       <c r="U11" t="n">
-        <v>1.03</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="W11" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2020,13 +2020,13 @@
         <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="H12" t="n">
         <v>2.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J12" t="n">
         <v>3.95</v>
@@ -2068,7 +2068,7 @@
         <v>1.63</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2080,7 +2080,7 @@
         <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
         <v>1000</v>
@@ -2092,7 +2092,7 @@
         <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>15.5</v>
@@ -2425,7 +2425,7 @@
         <v>3.7</v>
       </c>
       <c r="G15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H15" t="n">
         <v>2.14</v>
@@ -2458,7 +2458,7 @@
         <v>2.14</v>
       </c>
       <c r="R15" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S15" t="n">
         <v>4.4</v>
@@ -2470,7 +2470,7 @@
         <v>1.59</v>
       </c>
       <c r="V15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W15" t="n">
         <v>1.31</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G16" t="n">
         <v>3.75</v>
       </c>
       <c r="H16" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I16" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J16" t="n">
         <v>2.86</v>
       </c>
       <c r="K16" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="L16" t="n">
         <v>1.75</v>
@@ -2620,7 +2620,7 @@
         <v>14.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="AB16" t="n">
         <v>8.199999999999999</v>
@@ -2632,7 +2632,7 @@
         <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AF16" t="n">
         <v>23</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="G18" t="n">
         <v>5.7</v>
@@ -2878,7 +2878,7 @@
         <v>1.94</v>
       </c>
       <c r="W18" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X18" t="n">
         <v>980</v>
@@ -2965,7 +2965,7 @@
         <v>1.87</v>
       </c>
       <c r="G19" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
         <v>4.8</v>
@@ -3010,7 +3010,7 @@
         <v>1.9</v>
       </c>
       <c r="V19" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W19" t="n">
         <v>2.04</v>
@@ -3028,7 +3028,7 @@
         <v>140</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC19" t="n">
         <v>8.199999999999999</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Norwegian 2nd Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>Brann II</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Notodden</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>1.41</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.58</v>
+        <v>7.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.3</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.58</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>2.12</v>
       </c>
       <c r="S2" t="n">
-        <v>2.44</v>
+        <v>1.76</v>
       </c>
       <c r="T2" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="V2" t="n">
-        <v>1.63</v>
+        <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>1.52</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="AA2" t="n">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="AB2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>16</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>32</v>
       </c>
       <c r="AE2" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL2" t="n">
         <v>23</v>
       </c>
-      <c r="AF2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>30</v>
-      </c>
       <c r="AM2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>3.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Norwegian 2nd Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Brann II</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Notodden</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G3" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="H3" t="n">
-        <v>5.2</v>
+        <v>7.8</v>
       </c>
       <c r="I3" t="n">
-        <v>6.2</v>
+        <v>8.4</v>
       </c>
       <c r="J3" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>7.2</v>
+        <v>3.65</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S3" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.82</v>
-      </c>
       <c r="T3" t="n">
-        <v>1.47</v>
+        <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>2.72</v>
+        <v>1.86</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="Z3" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="n">
-        <v>830</v>
+        <v>310</v>
       </c>
       <c r="AB3" t="n">
-        <v>19.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF3" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AJ3" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AK3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L4" t="n">
         <v>1.52</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.39</v>
-      </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>2.74</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>2.36</v>
       </c>
       <c r="R4" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>1.61</v>
       </c>
       <c r="W4" t="n">
-        <v>2.76</v>
+        <v>1.43</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>Hvidovre</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.76</v>
+        <v>3.45</v>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
-        <v>2.62</v>
+        <v>2.18</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>2.74</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.58</v>
+        <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="T5" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.86</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.48</v>
+        <v>1.78</v>
       </c>
       <c r="W5" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hvidovre</t>
+          <t>Jonkopings Sodra</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Skovde Aik</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
         <v>3.5</v>
       </c>
-      <c r="G6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P6" t="n">
         <v>2.3</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.92</v>
-      </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>1.64</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>3.55</v>
+        <v>2.56</v>
       </c>
       <c r="T6" t="n">
-        <v>1.76</v>
+        <v>1.03</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>1.76</v>
+        <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>1.36</v>
+        <v>3.6</v>
       </c>
       <c r="X6" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Swedish Superettan</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jonkopings Sodra</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Skovde Aik</t>
+          <t>Varbergs BoIS</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.32</v>
+        <v>2.84</v>
       </c>
       <c r="G7" t="n">
-        <v>1.37</v>
+        <v>2.92</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2.6</v>
       </c>
       <c r="I7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD7" t="n">
         <v>12.5</v>
       </c>
-      <c r="J7" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="X7" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>48</v>
       </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>13</v>
-      </c>
       <c r="AK7" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
         <v>42</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.8</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Sandvikens</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Varbergs BoIS</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.58</v>
+        <v>1.9</v>
       </c>
       <c r="I8" t="n">
-        <v>2.66</v>
+        <v>1.92</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>1.98</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="R8" t="n">
-        <v>1.37</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="U8" t="n">
-        <v>2.28</v>
+        <v>2.56</v>
       </c>
       <c r="V8" t="n">
-        <v>1.6</v>
+        <v>2.06</v>
       </c>
       <c r="W8" t="n">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="X8" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH8" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI8" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AL8" t="n">
         <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN8" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AO8" t="n">
-        <v>22</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Swedish Superettan</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sandvikens</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.1</v>
+        <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
-        <v>1.9</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>1.93</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>2.52</v>
+        <v>1.86</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.58</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="U9" t="n">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>2.06</v>
+        <v>1.37</v>
       </c>
       <c r="W9" t="n">
-        <v>1.31</v>
+        <v>1.71</v>
       </c>
       <c r="X9" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>English Premier League 2 - Div 1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Crystal Palace U21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Birmingham U21</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.3</v>
+        <v>1.23</v>
       </c>
       <c r="G10" t="n">
-        <v>2.48</v>
+        <v>1.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.7</v>
+        <v>27</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>3.45</v>
+        <v>1.11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="P10" t="n">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.99</v>
+        <v>1.29</v>
       </c>
       <c r="R10" t="n">
-        <v>1.32</v>
+        <v>2.04</v>
       </c>
       <c r="S10" t="n">
-        <v>3.55</v>
+        <v>1.76</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>1.03</v>
       </c>
       <c r="U10" t="n">
-        <v>2.12</v>
+        <v>1.03</v>
       </c>
       <c r="V10" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English Premier League 2 - Div 1</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,70 +1873,70 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Crystal Palace U21</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Birmingham U21</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.26</v>
+        <v>2.68</v>
       </c>
       <c r="G11" t="n">
-        <v>1.33</v>
+        <v>2.94</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
         <v>5.6</v>
       </c>
-      <c r="K11" t="n">
-        <v>950</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7.6</v>
-      </c>
       <c r="O11" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.28</v>
+        <v>1.56</v>
       </c>
       <c r="R11" t="n">
-        <v>2.08</v>
+        <v>1.64</v>
       </c>
       <c r="S11" t="n">
-        <v>1.7</v>
+        <v>2.42</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.62</v>
       </c>
       <c r="V11" t="n">
-        <v>1.07</v>
+        <v>1.63</v>
       </c>
       <c r="W11" t="n">
-        <v>3.65</v>
+        <v>1.52</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y11" t="n">
         <v>1000</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="H12" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>2.56</v>
+        <v>1.91</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.55</v>
+        <v>2.06</v>
       </c>
       <c r="R12" t="n">
-        <v>1.61</v>
+        <v>1.35</v>
       </c>
       <c r="S12" t="n">
-        <v>2.38</v>
+        <v>3.65</v>
       </c>
       <c r="T12" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="W12" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AO12" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.82</v>
+        <v>1.51</v>
       </c>
       <c r="G13" t="n">
-        <v>2.9</v>
+        <v>1.61</v>
       </c>
       <c r="H13" t="n">
-        <v>2.78</v>
+        <v>6.8</v>
       </c>
       <c r="I13" t="n">
-        <v>2.84</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="P13" t="n">
-        <v>1.92</v>
+        <v>1.73</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="R13" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>2.18</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>1.68</v>
       </c>
       <c r="V13" t="n">
-        <v>1.54</v>
+        <v>1.1</v>
       </c>
       <c r="W13" t="n">
-        <v>1.52</v>
+        <v>2.62</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC13" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8</v>
-      </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.49</v>
+        <v>3.75</v>
       </c>
       <c r="G14" t="n">
-        <v>1.66</v>
+        <v>4.3</v>
       </c>
       <c r="H14" t="n">
-        <v>6.8</v>
+        <v>2.14</v>
       </c>
       <c r="I14" t="n">
-        <v>11.5</v>
+        <v>2.32</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>5.4</v>
+        <v>3.45</v>
       </c>
       <c r="L14" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="R14" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S14" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="T14" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U14" t="n">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="V14" t="n">
-        <v>1.1</v>
+        <v>1.76</v>
       </c>
       <c r="W14" t="n">
-        <v>2.52</v>
+        <v>1.31</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G15" t="n">
         <v>3.7</v>
       </c>
-      <c r="G15" t="n">
-        <v>4.6</v>
-      </c>
       <c r="H15" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N15" t="n">
         <v>2.14</v>
       </c>
-      <c r="I15" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="O15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q15" t="n">
         <v>3.55</v>
       </c>
-      <c r="L15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="R15" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.58</v>
       </c>
-      <c r="O15" t="n">
+      <c r="U15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.37</v>
       </c>
-      <c r="P15" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.31</v>
-      </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>6.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="Z15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD15" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA15" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>14</v>
-      </c>
       <c r="AE15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH15" t="n">
         <v>34</v>
       </c>
-      <c r="AF15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>27</v>
-      </c>
       <c r="AI15" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AK15" t="n">
         <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AM15" t="n">
-        <v>190</v>
+        <v>410</v>
       </c>
       <c r="AN15" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AO15" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Defensor Sporting</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Wanderers (Uru)</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.5</v>
+        <v>2.04</v>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>2.12</v>
       </c>
       <c r="H16" t="n">
-        <v>2.58</v>
+        <v>4.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.68</v>
+        <v>4.9</v>
       </c>
       <c r="J16" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>2.98</v>
+        <v>3.45</v>
       </c>
       <c r="L16" t="n">
-        <v>1.75</v>
+        <v>1.59</v>
       </c>
       <c r="M16" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.19</v>
       </c>
-      <c r="N16" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.12</v>
-      </c>
       <c r="S16" t="n">
-        <v>8.6</v>
+        <v>5.5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="U16" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="V16" t="n">
-        <v>1.6</v>
+        <v>1.26</v>
       </c>
       <c r="W16" t="n">
-        <v>1.36</v>
+        <v>1.89</v>
       </c>
       <c r="X16" t="n">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.2</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
         <v>34</v>
       </c>
-      <c r="AI16" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>410</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>150</v>
-      </c>
       <c r="AO16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,108 +2678,108 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Defensor Sporting</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Wanderers (Uru)</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.02</v>
+        <v>4.6</v>
       </c>
       <c r="G17" t="n">
-        <v>2.12</v>
+        <v>5.5</v>
       </c>
       <c r="H17" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="I17" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N17" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="O17" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P17" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="R17" t="n">
         <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T17" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U17" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="V17" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>1.9</v>
+        <v>1.22</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH17" t="n">
         <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="n">
         <v>1000</v>
@@ -2797,13 +2797,13 @@
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.2</v>
+        <v>1.91</v>
       </c>
       <c r="G18" t="n">
-        <v>5.7</v>
+        <v>1.98</v>
       </c>
       <c r="H18" t="n">
-        <v>1.87</v>
+        <v>4.7</v>
       </c>
       <c r="I18" t="n">
-        <v>2.06</v>
+        <v>5.1</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
         <v>3.65</v>
       </c>
       <c r="L18" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>2.48</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="P18" t="n">
-        <v>1.51</v>
+        <v>1.76</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S18" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="T18" t="n">
-        <v>2.22</v>
+        <v>1.96</v>
       </c>
       <c r="U18" t="n">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="V18" t="n">
-        <v>1.94</v>
+        <v>1.25</v>
       </c>
       <c r="W18" t="n">
-        <v>1.21</v>
+        <v>2.02</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.6</v>
+        <v>15.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,261 +2948,126 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.87</v>
+        <v>3.8</v>
       </c>
       <c r="G19" t="n">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8</v>
+        <v>2.08</v>
       </c>
       <c r="I19" t="n">
-        <v>5.4</v>
+        <v>2.24</v>
       </c>
       <c r="J19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.55</v>
       </c>
-      <c r="K19" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L19" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="O19" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="P19" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="R19" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.94</v>
+        <v>1.03</v>
       </c>
       <c r="U19" t="n">
-        <v>1.9</v>
+        <v>1.03</v>
       </c>
       <c r="V19" t="n">
-        <v>1.23</v>
+        <v>1.81</v>
       </c>
       <c r="W19" t="n">
-        <v>2.04</v>
+        <v>1.3</v>
       </c>
       <c r="X19" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
         <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD19" t="n">
         <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
         <v>95</v>
       </c>
       <c r="AJ19" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>La Equidad</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Once Caldas</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="G20" t="n">
-        <v>4</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X20" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.68</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="J2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K2" t="n">
         <v>5.6</v>
       </c>
-      <c r="K2" t="n">
-        <v>7</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P2" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="R2" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="S2" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U2" t="n">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>2.42</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Z2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AF2" t="n">
         <v>17.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -802,94 +802,94 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="G3" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
         <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="U3" t="n">
         <v>1.86</v>
       </c>
       <c r="V3" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W3" t="n">
-        <v>2.84</v>
+        <v>2.66</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA3" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
         <v>14</v>
@@ -898,16 +898,16 @@
         <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO3" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4">
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I4" t="n">
         <v>2.56</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.64</v>
-      </c>
       <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N4" t="n">
         <v>3.2</v>
       </c>
-      <c r="K4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.74</v>
-      </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="R4" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="W4" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1072,37 +1072,37 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H5" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
@@ -1114,13 +1114,13 @@
         <v>3.55</v>
       </c>
       <c r="T5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.78</v>
       </c>
       <c r="W5" t="n">
         <v>1.36</v>
@@ -1129,43 +1129,43 @@
         <v>15.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AF5" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AG5" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK5" t="n">
         <v>44</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>55</v>
       </c>
       <c r="AL5" t="n">
         <v>55</v>
@@ -1174,10 +1174,10 @@
         <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -1207,100 +1207,100 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="G6" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="K6" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="P6" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
-        <v>2.56</v>
+        <v>3.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.03</v>
+        <v>2.06</v>
       </c>
       <c r="U6" t="n">
-        <v>1.03</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,10 +1309,10 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7">
@@ -1345,13 +1345,13 @@
         <v>2.84</v>
       </c>
       <c r="G7" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="H7" t="n">
         <v>2.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J7" t="n">
         <v>3.55</v>
@@ -1360,49 +1360,49 @@
         <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>2.86</v>
+        <v>3.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U7" t="n">
         <v>2.28</v>
       </c>
       <c r="V7" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W7" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X7" t="n">
         <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA7" t="n">
         <v>40</v>
@@ -1411,16 +1411,16 @@
         <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
@@ -1429,10 +1429,10 @@
         <v>16.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
         <v>32</v>
@@ -1444,7 +1444,7 @@
         <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
         <v>22</v>
@@ -1477,73 +1477,73 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="G8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="I8" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="J8" t="n">
         <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U8" t="n">
         <v>2.6</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.56</v>
-      </c>
       <c r="V8" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="W8" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="X8" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
         <v>13.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC8" t="n">
         <v>9.800000000000001</v>
@@ -1552,13 +1552,13 @@
         <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH8" t="n">
         <v>15.5</v>
@@ -1567,22 +1567,22 @@
         <v>25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL8" t="n">
         <v>46</v>
       </c>
-      <c r="AL8" t="n">
-        <v>42</v>
-      </c>
       <c r="AM8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN8" t="n">
         <v>32</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.35</v>
       </c>
-      <c r="I9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W9" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA9" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
         <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="G10" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="I10" t="n">
         <v>27</v>
       </c>
       <c r="J10" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="K10" t="n">
         <v>13</v>
       </c>
       <c r="L10" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.11</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="H11" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="I11" t="n">
         <v>2.6</v>
@@ -1906,88 +1906,88 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="R11" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S11" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="U11" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="12">
@@ -2020,46 +2020,46 @@
         <v>2.82</v>
       </c>
       <c r="G12" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I12" t="n">
         <v>2.84</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
         <v>3.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q12" t="n">
         <v>2.06</v>
       </c>
       <c r="R12" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
         <v>2.2</v>
@@ -2068,16 +2068,16 @@
         <v>1.54</v>
       </c>
       <c r="W12" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="X12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
         <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA12" t="n">
         <v>42</v>
@@ -2086,13 +2086,13 @@
         <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
         <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AF12" t="n">
         <v>18</v>
@@ -2104,25 +2104,25 @@
         <v>17.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="n">
         <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="n">
         <v>95</v>
       </c>
       <c r="AN12" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AO12" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G13" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="H13" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.46</v>
@@ -2182,34 +2182,34 @@
         <v>1.39</v>
       </c>
       <c r="P13" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S13" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="V13" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W13" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="X13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2230,10 +2230,10 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2242,10 +2242,10 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
@@ -2287,37 +2287,37 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G14" t="n">
         <v>4.3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="I14" t="n">
         <v>2.32</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q14" t="n">
         <v>2.36</v>
@@ -2329,10 +2329,10 @@
         <v>4.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U14" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V14" t="n">
         <v>1.76</v>
@@ -2368,10 +2368,10 @@
         <v>32</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G15" t="n">
         <v>3.5</v>
       </c>
-      <c r="G15" t="n">
-        <v>3.7</v>
-      </c>
       <c r="H15" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="I15" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="J15" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K15" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="L15" t="n">
         <v>1.77</v>
@@ -2446,70 +2446,70 @@
         <v>1.19</v>
       </c>
       <c r="N15" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="O15" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="P15" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="R15" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="S15" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T15" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="U15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.57</v>
       </c>
-      <c r="V15" t="n">
-        <v>1.59</v>
-      </c>
       <c r="W15" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6.4</v>
       </c>
-      <c r="Y15" t="n">
-        <v>6.6</v>
-      </c>
       <c r="Z15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA15" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ15" t="n">
         <v>90</v>
@@ -2524,10 +2524,10 @@
         <v>410</v>
       </c>
       <c r="AN15" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AO15" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -2557,55 +2557,55 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G16" t="n">
         <v>2.12</v>
       </c>
       <c r="H16" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="M16" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="O16" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="P16" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="R16" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S16" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="T16" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="U16" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="V16" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W16" t="n">
         <v>1.89</v>
@@ -2626,7 +2626,7 @@
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2641,7 +2641,7 @@
         <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G17" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L17" t="n">
         <v>1.59</v>
@@ -2725,10 +2725,10 @@
         <v>1.51</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S17" t="n">
         <v>5.6</v>
@@ -2737,19 +2737,19 @@
         <v>2.24</v>
       </c>
       <c r="U17" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V17" t="n">
         <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X17" t="n">
         <v>980</v>
       </c>
       <c r="Y17" t="n">
-        <v>980</v>
+        <v>6.6</v>
       </c>
       <c r="Z17" t="n">
         <v>980</v>
@@ -2758,7 +2758,7 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
         <v>9.4</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="G18" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I18" t="n">
         <v>4.7</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.1</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -2851,16 +2851,16 @@
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P18" t="n">
         <v>1.76</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R18" t="n">
         <v>1.27</v>
@@ -2869,40 +2869,40 @@
         <v>4.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V18" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="X18" t="n">
         <v>11.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z18" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AC18" t="n">
         <v>8</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF18" t="n">
         <v>11</v>
@@ -2911,28 +2911,28 @@
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>23</v>
       </c>
-      <c r="AI18" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>22</v>
-      </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM18" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN18" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G19" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I19" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
         <v>3.55</v>
@@ -2986,40 +2986,40 @@
         <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P19" t="n">
         <v>1.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R19" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
         <v>4.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.03</v>
+        <v>2.04</v>
       </c>
       <c r="U19" t="n">
-        <v>1.03</v>
+        <v>1.87</v>
       </c>
       <c r="V19" t="n">
         <v>1.81</v>
       </c>
       <c r="W19" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="X19" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
         <v>980</v>
@@ -3031,16 +3031,16 @@
         <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD19" t="n">
         <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
         <v>980</v>
@@ -3049,19 +3049,19 @@
         <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.68</v>
+        <v>3.65</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>2.14</v>
       </c>
       <c r="I2" t="n">
-        <v>5.2</v>
+        <v>2.24</v>
       </c>
       <c r="J2" t="n">
-        <v>5.1</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.1</v>
       </c>
       <c r="P2" t="n">
-        <v>3.55</v>
+        <v>2.98</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="R2" t="n">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8</v>
+        <v>2.48</v>
       </c>
       <c r="T2" t="n">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="U2" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.24</v>
+        <v>1.81</v>
       </c>
       <c r="W2" t="n">
-        <v>2.42</v>
+        <v>1.38</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="n">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>6.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AE2" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH2" t="n">
         <v>11.5</v>
       </c>
-      <c r="AH2" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AM2" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.8</v>
+        <v>24</v>
       </c>
       <c r="AO2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I3" t="n">
         <v>7.6</v>
@@ -817,58 +817,58 @@
         <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T3" t="n">
         <v>2.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V3" t="n">
         <v>1.15</v>
       </c>
       <c r="W3" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X3" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="AB3" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC3" t="n">
         <v>9.6</v>
@@ -877,37 +877,37 @@
         <v>28</v>
       </c>
       <c r="AE3" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AF3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AJ3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK3" t="n">
         <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AM3" t="n">
-        <v>170</v>
+        <v>540</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
@@ -937,109 +937,109 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="G4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S4" t="n">
         <v>3.7</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
       <c r="T4" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="V4" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="W4" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G5" t="n">
         <v>3.5</v>
       </c>
-      <c r="G5" t="n">
-        <v>3.75</v>
-      </c>
       <c r="H5" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="I5" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.42</v>
@@ -1102,82 +1102,82 @@
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
         <v>1.78</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V5" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="W5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
         <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G6" t="n">
         <v>1.46</v>
       </c>
       <c r="H6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.27</v>
       </c>
       <c r="P6" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="R6" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="T6" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
         <v>34</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA6" t="n">
         <v>420</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AC6" t="n">
         <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>12.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,67 +1342,67 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="G7" t="n">
-        <v>2.96</v>
+        <v>2.82</v>
       </c>
       <c r="H7" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="I7" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
         <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T7" t="n">
         <v>1.7</v>
       </c>
       <c r="U7" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V7" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W7" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
         <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA7" t="n">
         <v>40</v>
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AK7" t="n">
         <v>32</v>
@@ -1444,10 +1444,10 @@
         <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -1477,88 +1477,88 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="G8" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H8" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="I8" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U8" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="V8" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y8" t="n">
         <v>13.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>16.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AG8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
         <v>15.5</v>
@@ -1567,10 +1567,10 @@
         <v>25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AK8" t="n">
-        <v>42</v>
+        <v>960</v>
       </c>
       <c r="AL8" t="n">
         <v>46</v>
@@ -1579,10 +1579,10 @@
         <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AO8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
         <v>3.35</v>
@@ -1630,64 +1630,64 @@
         <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X9" t="n">
         <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA9" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
         <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
         <v>14</v>
@@ -1699,25 +1699,25 @@
         <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AJ9" t="n">
         <v>32</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
         <v>21</v>
       </c>
       <c r="AO9" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="G10" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="H10" t="n">
-        <v>5.9</v>
+        <v>7.8</v>
       </c>
       <c r="I10" t="n">
-        <v>27</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>5.9</v>
+        <v>7.6</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="O10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.1</v>
       </c>
-      <c r="P10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.11</v>
-      </c>
       <c r="W10" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1825,7 +1825,7 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG10" t="n">
         <v>1000</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="G11" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="H11" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="I11" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
@@ -1900,13 +1900,13 @@
         <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
@@ -1918,43 +1918,43 @@
         <v>1.59</v>
       </c>
       <c r="R11" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
         <v>2.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="U11" t="n">
         <v>2.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W11" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z11" t="n">
         <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB11" t="n">
         <v>18</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
         <v>23</v>
@@ -1969,25 +1969,25 @@
         <v>14.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AJ11" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
         <v>55</v>
       </c>
       <c r="AN11" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="I12" t="n">
-        <v>2.84</v>
+        <v>2.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="R12" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="V12" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
         <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA12" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN12" t="n">
         <v>32</v>
       </c>
-      <c r="AF12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>28</v>
-      </c>
       <c r="AO12" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G13" t="n">
         <v>1.58</v>
       </c>
       <c r="H13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.46</v>
@@ -2179,7 +2179,7 @@
         <v>3.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P13" t="n">
         <v>1.74</v>
@@ -2194,22 +2194,22 @@
         <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U13" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="V13" t="n">
         <v>1.11</v>
       </c>
       <c r="W13" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2221,7 +2221,7 @@
         <v>6.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2233,7 +2233,7 @@
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2245,7 +2245,7 @@
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
@@ -2287,58 +2287,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
         <v>3.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P14" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="R14" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S14" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="U14" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V14" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="W14" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X14" t="n">
         <v>12</v>
@@ -2365,7 +2365,7 @@
         <v>34</v>
       </c>
       <c r="AF14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
         <v>19.5</v>
@@ -2377,22 +2377,22 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -2425,79 +2425,79 @@
         <v>3.4</v>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H15" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I15" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="J15" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K15" t="n">
         <v>2.9</v>
       </c>
-      <c r="K15" t="n">
-        <v>2.92</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="M15" t="n">
         <v>1.19</v>
       </c>
       <c r="N15" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="O15" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P15" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="R15" t="n">
         <v>1.11</v>
       </c>
       <c r="S15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="T15" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="U15" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="V15" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X15" t="n">
         <v>6.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA15" t="n">
         <v>50</v>
       </c>
       <c r="AB15" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="n">
         <v>21</v>
@@ -2506,28 +2506,28 @@
         <v>18</v>
       </c>
       <c r="AH15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI15" t="n">
         <v>120</v>
       </c>
       <c r="AJ15" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="n">
         <v>140</v>
       </c>
       <c r="AM15" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="AN15" t="n">
         <v>130</v>
       </c>
       <c r="AO15" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16">
@@ -2557,64 +2557,64 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="G16" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I16" t="n">
         <v>4.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L16" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M16" t="n">
         <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="O16" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P16" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="R16" t="n">
         <v>1.21</v>
       </c>
       <c r="S16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T16" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="U16" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V16" t="n">
         <v>1.27</v>
       </c>
       <c r="W16" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X16" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
@@ -2623,34 +2623,34 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL16" t="n">
         <v>1000</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="G17" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="I17" t="n">
         <v>1.99</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="M17" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="O17" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P17" t="n">
         <v>1.55</v>
       </c>
-      <c r="P17" t="n">
-        <v>1.51</v>
-      </c>
       <c r="Q17" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="R17" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="S17" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U17" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V17" t="n">
         <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="X17" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="Z17" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF17" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AG17" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI17" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AO17" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -2827,73 +2827,73 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="G18" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H18" t="n">
         <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
         <v>3.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P18" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="R18" t="n">
         <v>1.27</v>
       </c>
       <c r="S18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V18" t="n">
         <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="X18" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA18" t="n">
         <v>110</v>
       </c>
       <c r="AB18" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AC18" t="n">
         <v>8</v>
@@ -2902,10 +2902,10 @@
         <v>18.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
@@ -2917,13 +2917,13 @@
         <v>85</v>
       </c>
       <c r="AJ18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AL18" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
         <v>150</v>
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L19" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M19" t="n">
         <v>1.1</v>
@@ -2989,16 +2989,16 @@
         <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P19" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S19" t="n">
         <v>4.6</v>
@@ -3007,19 +3007,19 @@
         <v>2.04</v>
       </c>
       <c r="U19" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V19" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
         <v>980</v>
@@ -3031,10 +3031,10 @@
         <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AE19" t="n">
         <v>980</v>
@@ -3049,19 +3049,19 @@
         <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
         <v>120</v>
       </c>
       <c r="AK19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN19" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Norwegian 2nd Division</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,33 +653,33 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Brann II</t>
+          <t>Hvidovre</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Notodden</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>3.65</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.14</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.24</v>
+        <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
         <v>3.9</v>
@@ -691,94 +691,94 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>6.4</v>
       </c>
       <c r="S2" t="n">
-        <v>2.48</v>
+        <v>1.18</v>
       </c>
       <c r="T2" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.81</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>1.38</v>
+        <v>2.2</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>11.5</v>
+        <v>690</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>930</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>690</v>
       </c>
       <c r="AL2" t="n">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="AN2" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Jonkopings Sodra</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Skovde Aik</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>1.58</v>
       </c>
       <c r="G3" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="H3" t="n">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="I3" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q3" t="n">
         <v>4.3</v>
       </c>
-      <c r="L3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="R3" t="n">
         <v>1.07</v>
       </c>
-      <c r="N3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.37</v>
-      </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>13.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.04</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.89</v>
+        <v>1.28</v>
       </c>
       <c r="V3" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="X3" t="n">
-        <v>16</v>
+        <v>5.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AA3" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.199999999999999</v>
+        <v>3.95</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.4</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="AI3" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="AL3" t="n">
-        <v>48</v>
+        <v>310</v>
       </c>
       <c r="AM3" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.6</v>
+        <v>40</v>
       </c>
       <c r="AO3" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Swedish Superettan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Varbergs BoIS</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="G4" t="n">
         <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.44</v>
+        <v>3.85</v>
       </c>
       <c r="I4" t="n">
-        <v>2.66</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>3.3</v>
       </c>
-      <c r="K4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.87</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2.04</v>
+        <v>1.42</v>
       </c>
       <c r="R4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.33</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.6</v>
       </c>
       <c r="W4" t="n">
         <v>1.44</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.8</v>
+        <v>3.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>6.4</v>
       </c>
       <c r="AE4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>5.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>17.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AI4" t="n">
         <v>42</v>
       </c>
       <c r="AJ4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO4" t="n">
         <v>110</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Swedish Superettan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hvidovre</t>
+          <t>Sandvikens</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="H5" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="N5" t="n">
-        <v>3.85</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.96</v>
       </c>
       <c r="P5" t="n">
-        <v>1.95</v>
+        <v>1.31</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.08</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>3.05</v>
       </c>
       <c r="U5" t="n">
-        <v>2.24</v>
+        <v>1.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jonkopings Sodra</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Skovde Aik</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.41</v>
+        <v>2.58</v>
       </c>
       <c r="G6" t="n">
-        <v>1.46</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
-        <v>8.199999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>9.800000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
-        <v>5.4</v>
+        <v>2.96</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.18</v>
+        <v>5.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.46</v>
+        <v>2.14</v>
       </c>
       <c r="S6" t="n">
-        <v>2.82</v>
+        <v>1.86</v>
       </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.11</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>3.2</v>
+        <v>1.58</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO6" t="n">
         <v>34</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>420</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Swedish Superettan</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,96 +1328,96 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Varbergs BoIS</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.8</v>
       </c>
-      <c r="G7" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S7" t="n">
         <v>2.7</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.3</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="U7" t="n">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="V7" t="n">
         <v>1.58</v>
       </c>
       <c r="W7" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AB7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD7" t="n">
         <v>13</v>
       </c>
-      <c r="AC7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>12</v>
-      </c>
       <c r="AE7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
         <v>20</v>
@@ -1426,34 +1426,34 @@
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>38</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>44</v>
-      </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Swedish Superettan</t>
+          <t>English Premier League 2 - Div 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sandvikens</t>
+          <t>Crystal Palace U21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>Birmingham U21</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X8" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>280</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>990</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>990</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
         <v>4.6</v>
       </c>
-      <c r="G8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="X8" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>960</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>40</v>
-      </c>
       <c r="AO8" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.26</v>
+        <v>3.25</v>
       </c>
       <c r="G9" t="n">
-        <v>2.34</v>
+        <v>3.35</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>2.42</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>2.44</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="V9" t="n">
-        <v>1.35</v>
+        <v>1.69</v>
       </c>
       <c r="W9" t="n">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB9" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AJ9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN9" t="n">
         <v>32</v>
       </c>
-      <c r="AK9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>21</v>
-      </c>
       <c r="AO9" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English Premier League 2 - Div 1</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,103 +1733,103 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Crystal Palace U21</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Birmingham U21</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.28</v>
       </c>
-      <c r="G10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
         <v>9.4</v>
       </c>
-      <c r="L10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH10" t="n">
         <v>1000</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.66</v>
+        <v>3.8</v>
       </c>
       <c r="G11" t="n">
-        <v>2.74</v>
+        <v>4.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.58</v>
+        <v>2.14</v>
       </c>
       <c r="I11" t="n">
-        <v>2.66</v>
+        <v>2.24</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.52</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>3.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
       <c r="P11" t="n">
-        <v>2.66</v>
+        <v>1.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.59</v>
+        <v>2.28</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.5</v>
+        <v>1.98</v>
       </c>
       <c r="U11" t="n">
-        <v>2.8</v>
+        <v>1.87</v>
       </c>
       <c r="V11" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="W11" t="n">
-        <v>1.58</v>
+        <v>1.31</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG11" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13</v>
-      </c>
       <c r="AH11" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AN11" t="n">
-        <v>14.5</v>
+        <v>85</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H12" t="n">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>2.5</v>
+        <v>2.82</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>2.84</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>2.86</v>
       </c>
       <c r="L12" t="n">
-        <v>1.43</v>
+        <v>1.81</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="N12" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.93</v>
       </c>
       <c r="P12" t="n">
-        <v>2.02</v>
+        <v>1.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.94</v>
+        <v>3.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.39</v>
+        <v>1.11</v>
       </c>
       <c r="S12" t="n">
-        <v>3.5</v>
+        <v>9.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.73</v>
+        <v>2.72</v>
       </c>
       <c r="U12" t="n">
-        <v>2.32</v>
+        <v>1.52</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="W12" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="X12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z12" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>16</v>
-      </c>
       <c r="AA12" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>38</v>
       </c>
       <c r="AI12" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="n">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="n">
-        <v>85</v>
+        <v>390</v>
       </c>
       <c r="AN12" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>Defensor Sporting</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Wanderers (Uru)</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L13" t="n">
         <v>1.51</v>
       </c>
-      <c r="G13" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2</v>
+      </c>
+      <c r="X13" t="n">
         <v>11</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB13" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.85</v>
       </c>
-      <c r="G14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N14" t="n">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="O14" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="P14" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.28</v>
+        <v>2.72</v>
       </c>
       <c r="R14" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.26</v>
       </c>
-      <c r="S14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.32</v>
-      </c>
       <c r="X14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB14" t="n">
         <v>12</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>14</v>
       </c>
       <c r="AC14" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF14" t="n">
         <v>34</v>
       </c>
       <c r="AG14" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK14" t="n">
         <v>100</v>
       </c>
-      <c r="AK14" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL14" t="n">
         <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="AN14" t="n">
         <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.4</v>
       </c>
-      <c r="G15" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.86</v>
-      </c>
       <c r="K15" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.78</v>
+        <v>1.51</v>
       </c>
       <c r="M15" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>2.14</v>
+        <v>3.15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.83</v>
+        <v>1.43</v>
       </c>
       <c r="P15" t="n">
-        <v>1.35</v>
+        <v>1.73</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.65</v>
+        <v>2.32</v>
       </c>
       <c r="R15" t="n">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="S15" t="n">
-        <v>8.6</v>
+        <v>4.4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.62</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.56</v>
+        <v>1.89</v>
       </c>
       <c r="V15" t="n">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>1.39</v>
+        <v>1.98</v>
       </c>
       <c r="X15" t="n">
-        <v>6.2</v>
+        <v>10.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.6</v>
+        <v>13.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="AA15" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AB15" t="n">
         <v>7.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO15" t="n">
         <v>120</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>350</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>980</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,530 +2543,125 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Defensor Sporting</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Wanderers (Uru)</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.02</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H16" t="n">
         <v>2.1</v>
       </c>
-      <c r="H16" t="n">
-        <v>4.3</v>
-      </c>
       <c r="I16" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
         <v>3.45</v>
       </c>
       <c r="L16" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="M16" t="n">
         <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="O16" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="P16" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="R16" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S16" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="T16" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="U16" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="V16" t="n">
-        <v>1.27</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>1.9</v>
+        <v>1.29</v>
       </c>
       <c r="X16" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.8</v>
+        <v>23</v>
       </c>
       <c r="AC16" t="n">
         <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>11.5</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="AK16" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AL16" t="n">
         <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Tigres FC Zipaquira</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Boyaca Patriotas</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X17" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>170</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Racing Club</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Independiente Rivadavia</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="X18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>La Equidad</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Once Caldas</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO19" t="n">
         <v>1000</v>
       </c>
     </row>
